--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_2%_12m_0_LM/Planilha_Unificada.xlsx
@@ -4677,28 +4677,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>778.1164368132588</v>
+        <v>847.0127869765346</v>
       </c>
       <c r="AB2" t="n">
-        <v>1064.65323692234</v>
+        <v>1158.920262708186</v>
       </c>
       <c r="AC2" t="n">
-        <v>963.0442262406739</v>
+        <v>1048.314539390121</v>
       </c>
       <c r="AD2" t="n">
-        <v>778116.4368132588</v>
+        <v>847012.7869765346</v>
       </c>
       <c r="AE2" t="n">
-        <v>1064653.23692234</v>
+        <v>1158920.262708186</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.972211575445418e-06</v>
+        <v>2.843267245629879e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.41041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>963044.2262406739</v>
+        <v>1048314.539390121</v>
       </c>
     </row>
     <row r="3">
@@ -4783,28 +4783,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>289.5213794160364</v>
+        <v>323.9695992519498</v>
       </c>
       <c r="AB3" t="n">
-        <v>396.1359240988243</v>
+        <v>443.2694982265215</v>
       </c>
       <c r="AC3" t="n">
-        <v>358.329267483093</v>
+        <v>400.9644794484297</v>
       </c>
       <c r="AD3" t="n">
-        <v>289521.3794160364</v>
+        <v>323969.5992519498</v>
       </c>
       <c r="AE3" t="n">
-        <v>396135.9240988243</v>
+        <v>443269.4982265215</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.646818918779833e-06</v>
+        <v>5.257489060304439e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.333333333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>358329.267483093</v>
+        <v>400964.4794484297</v>
       </c>
     </row>
     <row r="4">
@@ -4889,28 +4889,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>231.6895246206157</v>
+        <v>257.5897175156168</v>
       </c>
       <c r="AB4" t="n">
-        <v>317.0078290062131</v>
+        <v>352.4456155610033</v>
       </c>
       <c r="AC4" t="n">
-        <v>286.7530467292366</v>
+        <v>318.8087006724946</v>
       </c>
       <c r="AD4" t="n">
-        <v>231689.5246206157</v>
+        <v>257589.7175156168</v>
       </c>
       <c r="AE4" t="n">
-        <v>317007.8290062131</v>
+        <v>352445.6155610033</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.244507418269431e-06</v>
+        <v>6.11915530080637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.160416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>286753.0467292366</v>
+        <v>318808.7006724946</v>
       </c>
     </row>
     <row r="5">
@@ -4995,28 +4995,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>204.1849780509268</v>
+        <v>238.6331083782887</v>
       </c>
       <c r="AB5" t="n">
-        <v>279.3748949746277</v>
+        <v>326.5083466327525</v>
       </c>
       <c r="AC5" t="n">
-        <v>252.711747103459</v>
+        <v>295.3468482875622</v>
       </c>
       <c r="AD5" t="n">
-        <v>204184.9780509268</v>
+        <v>238633.1083782887</v>
       </c>
       <c r="AE5" t="n">
-        <v>279374.8949746277</v>
+        <v>326508.3466327525</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.549259987328199e-06</v>
+        <v>6.558506234760125e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.681249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>252711.747103459</v>
+        <v>295346.8482875622</v>
       </c>
     </row>
     <row r="6">
@@ -5101,28 +5101,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>192.7824756298879</v>
+        <v>218.5973276703174</v>
       </c>
       <c r="AB6" t="n">
-        <v>263.7734881192661</v>
+        <v>299.0945075518587</v>
       </c>
       <c r="AC6" t="n">
-        <v>238.5993166216561</v>
+        <v>270.5493475329754</v>
       </c>
       <c r="AD6" t="n">
-        <v>192782.4756298879</v>
+        <v>218597.3276703174</v>
       </c>
       <c r="AE6" t="n">
-        <v>263773.4881192661</v>
+        <v>299094.5075518587</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.753206416980739e-06</v>
+        <v>6.852528544797152e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.393750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>238599.3166216561</v>
+        <v>270549.3475329754</v>
       </c>
     </row>
     <row r="7">
@@ -5207,28 +5207,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>190.1409764200838</v>
+        <v>215.9558284605134</v>
       </c>
       <c r="AB7" t="n">
-        <v>260.1592723656935</v>
+        <v>295.480291798286</v>
       </c>
       <c r="AC7" t="n">
-        <v>235.3300365470197</v>
+        <v>267.2800674583389</v>
       </c>
       <c r="AD7" t="n">
-        <v>190140.9764200838</v>
+        <v>215955.8284605134</v>
       </c>
       <c r="AE7" t="n">
-        <v>260159.2723656935</v>
+        <v>295480.291798286</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.809226037142811e-06</v>
+        <v>6.933290037682861e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.318749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>235330.0365470197</v>
+        <v>267280.0674583389</v>
       </c>
     </row>
     <row r="8">
@@ -5313,28 +5313,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>182.2553790986677</v>
+        <v>208.0702311390972</v>
       </c>
       <c r="AB8" t="n">
-        <v>249.3698502225363</v>
+        <v>284.6908696551288</v>
       </c>
       <c r="AC8" t="n">
-        <v>225.5703417101528</v>
+        <v>257.5203726214721</v>
       </c>
       <c r="AD8" t="n">
-        <v>182255.3790986677</v>
+        <v>208070.2311390972</v>
       </c>
       <c r="AE8" t="n">
-        <v>249369.8502225362</v>
+        <v>284690.8696551288</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.950879816250547e-06</v>
+        <v>7.137507250162082e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.139583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>225570.3417101528</v>
+        <v>257520.3726214721</v>
       </c>
     </row>
     <row r="9">
@@ -5419,28 +5419,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>178.1631436608753</v>
+        <v>203.9779957013048</v>
       </c>
       <c r="AB9" t="n">
-        <v>243.7706731598656</v>
+        <v>279.0916925924581</v>
       </c>
       <c r="AC9" t="n">
-        <v>220.5055422478473</v>
+        <v>252.4555731591666</v>
       </c>
       <c r="AD9" t="n">
-        <v>178163.1436608753</v>
+        <v>203977.9957013048</v>
       </c>
       <c r="AE9" t="n">
-        <v>243770.6731598656</v>
+        <v>279091.6925924581</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.024697336568277e-06</v>
+        <v>7.24392734235002e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.047916666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>220505.5422478473</v>
+        <v>252455.5731591666</v>
       </c>
     </row>
     <row r="10">
@@ -5525,28 +5525,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.4431906355732</v>
+        <v>199.8059801083635</v>
       </c>
       <c r="AB10" t="n">
-        <v>226.3666722659337</v>
+        <v>273.3833568018608</v>
       </c>
       <c r="AC10" t="n">
-        <v>204.762554772558</v>
+        <v>247.2920329247225</v>
       </c>
       <c r="AD10" t="n">
-        <v>165443.1906355732</v>
+        <v>199805.9801083635</v>
       </c>
       <c r="AE10" t="n">
-        <v>226366.6722659337</v>
+        <v>273383.3568018608</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.093408901923317e-06</v>
+        <v>7.342986360967645e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.966666666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>204762.554772558</v>
+        <v>247292.0329247225</v>
       </c>
     </row>
     <row r="11">
@@ -5631,28 +5631,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>160.9066046896596</v>
+        <v>186.8067080761097</v>
       </c>
       <c r="AB11" t="n">
-        <v>220.1595152346909</v>
+        <v>255.5971793199327</v>
       </c>
       <c r="AC11" t="n">
-        <v>199.1478000965755</v>
+        <v>231.203343258607</v>
       </c>
       <c r="AD11" t="n">
-        <v>160906.6046896596</v>
+        <v>186806.7080761097</v>
       </c>
       <c r="AE11" t="n">
-        <v>220159.5152346909</v>
+        <v>255597.1793199327</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.174374759188811e-06</v>
+        <v>7.459711956154017e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.872916666666668</v>
       </c>
       <c r="AH11" t="n">
-        <v>199147.8000965755</v>
+        <v>231203.3432586071</v>
       </c>
     </row>
     <row r="12">
@@ -5737,28 +5737,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>160.5849809790531</v>
+        <v>186.4850843655032</v>
       </c>
       <c r="AB12" t="n">
-        <v>219.7194554848027</v>
+        <v>255.1571195700444</v>
       </c>
       <c r="AC12" t="n">
-        <v>198.7497390315887</v>
+        <v>230.8052821936202</v>
       </c>
       <c r="AD12" t="n">
-        <v>160584.9809790531</v>
+        <v>186485.0843655032</v>
       </c>
       <c r="AE12" t="n">
-        <v>219719.4554848027</v>
+        <v>255157.1195700445</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.159494547583261e-06</v>
+        <v>7.438259684606252e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.891666666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>198749.7390315887</v>
+        <v>230805.2821936202</v>
       </c>
     </row>
     <row r="13">
@@ -5843,28 +5843,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>158.0888750851088</v>
+        <v>183.9889784715589</v>
       </c>
       <c r="AB13" t="n">
-        <v>216.3041732802896</v>
+        <v>251.7418373655314</v>
       </c>
       <c r="AC13" t="n">
-        <v>195.6604065672946</v>
+        <v>227.7159497293262</v>
       </c>
       <c r="AD13" t="n">
-        <v>158088.8750851088</v>
+        <v>183988.9784715589</v>
       </c>
       <c r="AE13" t="n">
-        <v>216304.1732802896</v>
+        <v>251741.8373655314</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.191880890489458e-06</v>
+        <v>7.484949922680802e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.854166666666667</v>
       </c>
       <c r="AH13" t="n">
-        <v>195660.4065672946</v>
+        <v>227715.9497293262</v>
       </c>
     </row>
     <row r="14">
@@ -5949,28 +5949,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>155.3069855159469</v>
+        <v>181.207088902397</v>
       </c>
       <c r="AB14" t="n">
-        <v>212.4978692434582</v>
+        <v>247.9355333287</v>
       </c>
       <c r="AC14" t="n">
-        <v>192.2173708455559</v>
+        <v>224.2729140075874</v>
       </c>
       <c r="AD14" t="n">
-        <v>155306.9855159469</v>
+        <v>181207.088902397</v>
       </c>
       <c r="AE14" t="n">
-        <v>212497.8692434582</v>
+        <v>247935.5333287</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.232436761335958e-06</v>
+        <v>7.54341787846785e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.808333333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>192217.3708455559</v>
+        <v>224272.9140075874</v>
       </c>
     </row>
     <row r="15">
@@ -6055,28 +6055,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>152.1311810024216</v>
+        <v>178.0312843888717</v>
       </c>
       <c r="AB15" t="n">
-        <v>208.1525934014482</v>
+        <v>243.59025748669</v>
       </c>
       <c r="AC15" t="n">
-        <v>188.286802031273</v>
+        <v>220.3423451933045</v>
       </c>
       <c r="AD15" t="n">
-        <v>152131.1810024216</v>
+        <v>178031.2843888717</v>
       </c>
       <c r="AE15" t="n">
-        <v>208152.5934014482</v>
+        <v>243590.25748669</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.269345521494822e-06</v>
+        <v>7.596627924561819e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.768750000000001</v>
       </c>
       <c r="AH15" t="n">
-        <v>188286.802031273</v>
+        <v>220342.3451933045</v>
       </c>
     </row>
     <row r="16">
@@ -6161,28 +6161,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>150.8371564827977</v>
+        <v>176.7372598692479</v>
       </c>
       <c r="AB16" t="n">
-        <v>206.382051965367</v>
+        <v>241.8197160506087</v>
       </c>
       <c r="AC16" t="n">
-        <v>186.6852385848803</v>
+        <v>218.7407817469118</v>
       </c>
       <c r="AD16" t="n">
-        <v>150837.1564827977</v>
+        <v>176737.2598692478</v>
       </c>
       <c r="AE16" t="n">
-        <v>206382.051965367</v>
+        <v>241819.7160506087</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.277369165007619e-06</v>
+        <v>7.608195325886594e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.758333333333333</v>
       </c>
       <c r="AH16" t="n">
-        <v>186685.2385848803</v>
+        <v>218740.7817469118</v>
       </c>
     </row>
     <row r="17">
@@ -6267,28 +6267,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>150.3096583323534</v>
+        <v>176.2097617188035</v>
       </c>
       <c r="AB17" t="n">
-        <v>205.6603057243534</v>
+        <v>241.0979698095952</v>
       </c>
       <c r="AC17" t="n">
-        <v>186.0323747921316</v>
+        <v>218.0879179541632</v>
       </c>
       <c r="AD17" t="n">
-        <v>150309.6583323534</v>
+        <v>176209.7617188035</v>
       </c>
       <c r="AE17" t="n">
-        <v>205660.3057243534</v>
+        <v>241097.9698095952</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.272846747754951e-06</v>
+        <v>7.601675517867174e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.764583333333334</v>
       </c>
       <c r="AH17" t="n">
-        <v>186032.3747921316</v>
+        <v>218087.9179541632</v>
       </c>
     </row>
     <row r="18">
@@ -6373,28 +6373,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>150.8428413306349</v>
+        <v>176.742944717085</v>
       </c>
       <c r="AB18" t="n">
-        <v>206.3898302249755</v>
+        <v>241.8274943102173</v>
       </c>
       <c r="AC18" t="n">
-        <v>186.6922744983086</v>
+        <v>218.7478176603402</v>
       </c>
       <c r="AD18" t="n">
-        <v>150842.8413306349</v>
+        <v>176742.944717085</v>
       </c>
       <c r="AE18" t="n">
-        <v>206389.8302249755</v>
+        <v>241827.4943102173</v>
       </c>
       <c r="AF18" t="n">
-        <v>5.270512596914865e-06</v>
+        <v>7.598310455663604e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>6</v>
+        <v>5.766666666666667</v>
       </c>
       <c r="AH18" t="n">
-        <v>186692.2744983087</v>
+        <v>218747.8176603402</v>
       </c>
     </row>
   </sheetData>
@@ -6670,28 +6670,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>490.3571262764984</v>
+        <v>540.776416260496</v>
       </c>
       <c r="AB2" t="n">
-        <v>670.9282532011347</v>
+        <v>739.914150099328</v>
       </c>
       <c r="AC2" t="n">
-        <v>606.8958023693352</v>
+        <v>669.2977820898794</v>
       </c>
       <c r="AD2" t="n">
-        <v>490357.1262764984</v>
+        <v>540776.416260496</v>
       </c>
       <c r="AE2" t="n">
-        <v>670928.2532011347</v>
+        <v>739914.150099328</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.589406419658684e-06</v>
+        <v>3.790793587622266e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.14166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>606895.8023693352</v>
+        <v>669297.7820898794</v>
       </c>
     </row>
     <row r="3">
@@ -6776,28 +6776,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>231.8101195448341</v>
+        <v>265.479813764849</v>
       </c>
       <c r="AB3" t="n">
-        <v>317.1728323018013</v>
+        <v>363.2411933358493</v>
       </c>
       <c r="AC3" t="n">
-        <v>286.9023023418774</v>
+        <v>328.5739636560918</v>
       </c>
       <c r="AD3" t="n">
-        <v>231810.1195448341</v>
+        <v>265479.813764849</v>
       </c>
       <c r="AE3" t="n">
-        <v>317172.8323018013</v>
+        <v>363241.1933358493</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.120594060051329e-06</v>
+        <v>6.032394691481429e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.629166666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>286902.3023418774</v>
+        <v>328573.9636560918</v>
       </c>
     </row>
     <row r="4">
@@ -6882,28 +6882,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>191.1244826765772</v>
+        <v>224.7088360420172</v>
       </c>
       <c r="AB4" t="n">
-        <v>261.5049490150608</v>
+        <v>307.4565429267346</v>
       </c>
       <c r="AC4" t="n">
-        <v>236.5472837056408</v>
+        <v>278.1133219878662</v>
       </c>
       <c r="AD4" t="n">
-        <v>191124.4826765772</v>
+        <v>224708.8360420172</v>
       </c>
       <c r="AE4" t="n">
-        <v>261504.9490150608</v>
+        <v>307456.5429267347</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.648194295692241e-06</v>
+        <v>6.804781588691328e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.764583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>236547.2837056408</v>
+        <v>278113.3219878662</v>
       </c>
     </row>
     <row r="5">
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.9329264921269</v>
+        <v>202.0999458111151</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.0874357562339</v>
+        <v>276.5220618789882</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.9829506595792</v>
+        <v>250.13118439449</v>
       </c>
       <c r="AD5" t="n">
-        <v>176932.9264921269</v>
+        <v>202099.9458111151</v>
       </c>
       <c r="AE5" t="n">
-        <v>242087.4357562339</v>
+        <v>276522.0618789882</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.932066161607731e-06</v>
+        <v>7.220359321429262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.375</v>
       </c>
       <c r="AH5" t="n">
-        <v>218982.9506595792</v>
+        <v>250131.1843944901</v>
       </c>
     </row>
     <row r="6">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>170.5055326910153</v>
+        <v>195.6725520100035</v>
       </c>
       <c r="AB6" t="n">
-        <v>233.2931920009553</v>
+        <v>267.7278181237097</v>
       </c>
       <c r="AC6" t="n">
-        <v>211.0280171855029</v>
+        <v>242.1762509204138</v>
       </c>
       <c r="AD6" t="n">
-        <v>170505.5326910153</v>
+        <v>195672.5520100035</v>
       </c>
       <c r="AE6" t="n">
-        <v>233293.1920009553</v>
+        <v>267727.8181237096</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.069399174889548e-06</v>
+        <v>7.421409686549688e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.202083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>211028.0171855029</v>
+        <v>242176.2509204138</v>
       </c>
     </row>
     <row r="7">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.0395827038785</v>
+        <v>189.2066020228667</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.4461939709783</v>
+        <v>258.8808200937326</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.0253642306643</v>
+        <v>234.1735979655752</v>
       </c>
       <c r="AD7" t="n">
-        <v>164039.5827038785</v>
+        <v>189206.6020228667</v>
       </c>
       <c r="AE7" t="n">
-        <v>224446.1939709783</v>
+        <v>258880.8200937326</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.196469941025029e-06</v>
+        <v>7.607436507902873e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.05</v>
       </c>
       <c r="AH7" t="n">
-        <v>203025.3642306643</v>
+        <v>234173.5979655752</v>
       </c>
     </row>
     <row r="8">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>150.8034791925299</v>
+        <v>184.3024917033983</v>
       </c>
       <c r="AB8" t="n">
-        <v>206.3359732110854</v>
+        <v>252.1708000005616</v>
       </c>
       <c r="AC8" t="n">
-        <v>186.6435575222354</v>
+        <v>228.103972772522</v>
       </c>
       <c r="AD8" t="n">
-        <v>150803.47919253</v>
+        <v>184302.4917033984</v>
       </c>
       <c r="AE8" t="n">
-        <v>206335.9732110854</v>
+        <v>252170.8000005616</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.287924672946766e-06</v>
+        <v>7.741322795005046e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.945833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>186643.5575222354</v>
+        <v>228103.972772522</v>
       </c>
     </row>
     <row r="9">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>146.7918622370037</v>
+        <v>172.0441329020124</v>
       </c>
       <c r="AB9" t="n">
-        <v>200.8471019124876</v>
+        <v>235.3983726878912</v>
       </c>
       <c r="AC9" t="n">
-        <v>181.6785363966948</v>
+        <v>212.9322823823179</v>
       </c>
       <c r="AD9" t="n">
-        <v>146791.8622370037</v>
+        <v>172044.1329020124</v>
       </c>
       <c r="AE9" t="n">
-        <v>200847.1019124876</v>
+        <v>235398.3726878912</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.353120125405827e-06</v>
+        <v>7.836766484820457e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.872916666666668</v>
       </c>
       <c r="AH9" t="n">
-        <v>181678.5363966948</v>
+        <v>212932.2823823179</v>
       </c>
     </row>
     <row r="10">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>143.4899407916361</v>
+        <v>168.7422114566449</v>
       </c>
       <c r="AB10" t="n">
-        <v>196.3292673204448</v>
+        <v>230.8805380958483</v>
       </c>
       <c r="AC10" t="n">
-        <v>177.5918775972944</v>
+        <v>208.8456235829176</v>
       </c>
       <c r="AD10" t="n">
-        <v>143489.9407916361</v>
+        <v>168742.2114566449</v>
       </c>
       <c r="AE10" t="n">
-        <v>196329.2673204447</v>
+        <v>230880.5380958483</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.402771291746176e-06</v>
+        <v>7.909453924517842e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.818750000000001</v>
       </c>
       <c r="AH10" t="n">
-        <v>177591.8775972944</v>
+        <v>208845.6235829176</v>
       </c>
     </row>
     <row r="11">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>140.4048784380997</v>
+        <v>165.6571491031085</v>
       </c>
       <c r="AB11" t="n">
-        <v>192.108148904993</v>
+        <v>226.6594196803966</v>
       </c>
       <c r="AC11" t="n">
-        <v>173.7736167990351</v>
+        <v>205.0273627846583</v>
       </c>
       <c r="AD11" t="n">
-        <v>140404.8784380997</v>
+        <v>165657.1491031084</v>
       </c>
       <c r="AE11" t="n">
-        <v>192108.148904993</v>
+        <v>226659.4196803966</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.437180002766235e-06</v>
+        <v>7.959826983031531e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.783333333333334</v>
       </c>
       <c r="AH11" t="n">
-        <v>173773.6167990351</v>
+        <v>205027.3627846583</v>
       </c>
     </row>
     <row r="12">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>138.1938480555628</v>
+        <v>163.4461187205716</v>
       </c>
       <c r="AB12" t="n">
-        <v>189.0829195918314</v>
+        <v>223.6341903672349</v>
       </c>
       <c r="AC12" t="n">
-        <v>171.0371111255847</v>
+        <v>202.2908571112079</v>
       </c>
       <c r="AD12" t="n">
-        <v>138193.8480555628</v>
+        <v>163446.1187205716</v>
       </c>
       <c r="AE12" t="n">
-        <v>189082.9195918314</v>
+        <v>223634.1903672349</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.469324982798133e-06</v>
+        <v>8.006886024537741e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.747916666666666</v>
       </c>
       <c r="AH12" t="n">
-        <v>171037.1111255847</v>
+        <v>202290.8571112078</v>
       </c>
     </row>
     <row r="13">
@@ -7836,28 +7836,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>138.5491963317419</v>
+        <v>163.8014669967507</v>
       </c>
       <c r="AB13" t="n">
-        <v>189.5691227801589</v>
+        <v>224.1203935555624</v>
       </c>
       <c r="AC13" t="n">
-        <v>171.4769117640088</v>
+        <v>202.730657749632</v>
       </c>
       <c r="AD13" t="n">
-        <v>138549.1963317419</v>
+        <v>163801.4669967506</v>
       </c>
       <c r="AE13" t="n">
-        <v>189569.1227801589</v>
+        <v>224120.3935555624</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.467815828806025e-06</v>
+        <v>8.004676679866088e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH13" t="n">
-        <v>171476.9117640088</v>
+        <v>202730.657749632</v>
       </c>
     </row>
   </sheetData>
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.5846543506398</v>
+        <v>212.6538092875988</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.4521350319975</v>
+        <v>290.9623234911019</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.7402119693774</v>
+        <v>263.1932877053826</v>
       </c>
       <c r="AD2" t="n">
-        <v>181584.6543506398</v>
+        <v>212653.8092875988</v>
       </c>
       <c r="AE2" t="n">
-        <v>248452.1350319975</v>
+        <v>290962.3234911019</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.502163319846354e-06</v>
+        <v>6.965402370945026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.791666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>224740.2119693774</v>
+        <v>263193.2877053826</v>
       </c>
     </row>
     <row r="3">
@@ -8239,28 +8239,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>131.6179632229762</v>
+        <v>154.8345780796749</v>
       </c>
       <c r="AB3" t="n">
-        <v>180.0855038563268</v>
+        <v>211.8515005480059</v>
       </c>
       <c r="AC3" t="n">
-        <v>162.8983961199215</v>
+        <v>191.6326906712132</v>
       </c>
       <c r="AD3" t="n">
-        <v>131617.9632229762</v>
+        <v>154834.5780796749</v>
       </c>
       <c r="AE3" t="n">
-        <v>180085.5038563268</v>
+        <v>211851.5005480059</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.580089162761503e-06</v>
+        <v>8.633086701463788e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.287500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>162898.3961199215</v>
+        <v>191632.6906712132</v>
       </c>
     </row>
     <row r="4">
@@ -8345,28 +8345,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>113.1330137596402</v>
+        <v>144.031486987456</v>
       </c>
       <c r="AB4" t="n">
-        <v>154.793580502188</v>
+        <v>197.0702347168971</v>
       </c>
       <c r="AC4" t="n">
-        <v>140.0202984332562</v>
+        <v>178.2621281053839</v>
       </c>
       <c r="AD4" t="n">
-        <v>113133.0137596402</v>
+        <v>144031.486987456</v>
       </c>
       <c r="AE4" t="n">
-        <v>154793.5805021879</v>
+        <v>197070.2347168971</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.878493254879241e-06</v>
+        <v>9.094754664856889e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.96875</v>
       </c>
       <c r="AH4" t="n">
-        <v>140020.2984332562</v>
+        <v>178262.1281053839</v>
       </c>
     </row>
     <row r="5">
@@ -8451,28 +8451,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>110.2680998204494</v>
+        <v>133.5699660231686</v>
       </c>
       <c r="AB5" t="n">
-        <v>150.8736788595062</v>
+        <v>182.7563202038346</v>
       </c>
       <c r="AC5" t="n">
-        <v>136.4745067017343</v>
+        <v>165.3143135037382</v>
       </c>
       <c r="AD5" t="n">
-        <v>110268.0998204494</v>
+        <v>133569.9660231686</v>
       </c>
       <c r="AE5" t="n">
-        <v>150873.6788595062</v>
+        <v>182756.3202038346</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.976501822380665e-06</v>
+        <v>9.246386016264783e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.870833333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>136474.5067017343</v>
+        <v>165314.3135037383</v>
       </c>
     </row>
   </sheetData>
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>254.6522589245324</v>
+        <v>294.6742456286868</v>
       </c>
       <c r="AB2" t="n">
-        <v>348.4264551251567</v>
+        <v>403.1863029793859</v>
       </c>
       <c r="AC2" t="n">
-        <v>315.1731232677168</v>
+        <v>364.7067680985627</v>
       </c>
       <c r="AD2" t="n">
-        <v>254652.2589245324</v>
+        <v>294674.2456286869</v>
       </c>
       <c r="AE2" t="n">
-        <v>348426.4551251567</v>
+        <v>403186.3029793858</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.73210176817289e-06</v>
+        <v>5.640302891841818e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.99375</v>
       </c>
       <c r="AH2" t="n">
-        <v>315173.1232677168</v>
+        <v>364706.7680985627</v>
       </c>
     </row>
     <row r="3">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>161.6271686311613</v>
+        <v>193.6276898235676</v>
       </c>
       <c r="AB3" t="n">
-        <v>221.1454226084907</v>
+        <v>264.9299474672767</v>
       </c>
       <c r="AC3" t="n">
-        <v>200.0396138543498</v>
+        <v>239.6454051125938</v>
       </c>
       <c r="AD3" t="n">
-        <v>161627.1686311613</v>
+        <v>193627.6898235676</v>
       </c>
       <c r="AE3" t="n">
-        <v>221145.4226084907</v>
+        <v>264929.9474672767</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.989346100333006e-06</v>
+        <v>7.540368667890059e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.727083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>200039.6138543498</v>
+        <v>239645.4051125938</v>
       </c>
     </row>
     <row r="4">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>144.4021261911737</v>
+        <v>168.3812713803866</v>
       </c>
       <c r="AB4" t="n">
-        <v>197.5773596268712</v>
+        <v>230.3866839599597</v>
       </c>
       <c r="AC4" t="n">
-        <v>178.7208537257044</v>
+        <v>208.3989021926294</v>
       </c>
       <c r="AD4" t="n">
-        <v>144402.1261911737</v>
+        <v>168381.2713803866</v>
       </c>
       <c r="AE4" t="n">
-        <v>197577.3596268712</v>
+        <v>230386.6839599597</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.431089303662456e-06</v>
+        <v>8.20797250668097e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.179166666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>178720.8537257044</v>
+        <v>208398.9021926293</v>
       </c>
     </row>
     <row r="5">
@@ -9066,28 +9066,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.8765078502529</v>
+        <v>160.7916881880876</v>
       </c>
       <c r="AB5" t="n">
-        <v>176.3345236708935</v>
+        <v>220.002281407482</v>
       </c>
       <c r="AC5" t="n">
-        <v>159.505404218851</v>
+        <v>199.0055724451563</v>
       </c>
       <c r="AD5" t="n">
-        <v>128876.5078502529</v>
+        <v>160791.6881880876</v>
       </c>
       <c r="AE5" t="n">
-        <v>176334.5236708935</v>
+        <v>220002.281407482</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.605563369747721e-06</v>
+        <v>8.471654110404732e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.9875</v>
       </c>
       <c r="AH5" t="n">
-        <v>159505.404218851</v>
+        <v>199005.5724451563</v>
       </c>
     </row>
     <row r="6">
@@ -9172,28 +9172,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>122.2779495399935</v>
+        <v>146.342346075227</v>
       </c>
       <c r="AB6" t="n">
-        <v>167.3060850829539</v>
+        <v>200.2320540686916</v>
       </c>
       <c r="AC6" t="n">
-        <v>151.3386271382483</v>
+        <v>181.1221878558855</v>
       </c>
       <c r="AD6" t="n">
-        <v>122277.9495399935</v>
+        <v>146342.346075227</v>
       </c>
       <c r="AE6" t="n">
-        <v>167306.0850829539</v>
+        <v>200232.0540686916</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.757483078259636e-06</v>
+        <v>8.701249449565867e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.829166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>151338.6271382483</v>
+        <v>181122.1878558855</v>
       </c>
     </row>
     <row r="7">
@@ -9278,28 +9278,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>120.35685271086</v>
+        <v>144.4212492460935</v>
       </c>
       <c r="AB7" t="n">
-        <v>164.6775556485242</v>
+        <v>197.603524634262</v>
       </c>
       <c r="AC7" t="n">
-        <v>148.9609608638756</v>
+        <v>178.7445215815127</v>
       </c>
       <c r="AD7" t="n">
-        <v>120356.85271086</v>
+        <v>144421.2492460934</v>
       </c>
       <c r="AE7" t="n">
-        <v>164677.5556485242</v>
+        <v>197603.524634262</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.796953204012998e-06</v>
+        <v>8.760900412550468e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.789583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>148960.9608638755</v>
+        <v>178744.5215815127</v>
       </c>
     </row>
   </sheetData>
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.3339510849438</v>
+        <v>167.010475504918</v>
       </c>
       <c r="AB2" t="n">
-        <v>197.4840794388539</v>
+        <v>228.5111005678986</v>
       </c>
       <c r="AC2" t="n">
-        <v>178.636476067912</v>
+        <v>206.7023218471081</v>
       </c>
       <c r="AD2" t="n">
-        <v>144333.9510849438</v>
+        <v>167010.475504918</v>
       </c>
       <c r="AE2" t="n">
-        <v>197484.0794388539</v>
+        <v>228511.1005678985</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.162264418043643e-06</v>
+        <v>8.158896915690556e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.058333333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>178636.4760679119</v>
+        <v>206702.3218471081</v>
       </c>
     </row>
     <row r="3">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>110.6902035695828</v>
+        <v>133.2813871349854</v>
       </c>
       <c r="AB3" t="n">
-        <v>151.4512198309735</v>
+        <v>182.3614738378205</v>
       </c>
       <c r="AC3" t="n">
-        <v>136.9969279734687</v>
+        <v>164.957150720726</v>
       </c>
       <c r="AD3" t="n">
-        <v>110690.2035695828</v>
+        <v>133281.3871349854</v>
       </c>
       <c r="AE3" t="n">
-        <v>151451.2198309735</v>
+        <v>182361.4738378205</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.052840729761973e-06</v>
+        <v>9.566442080844923e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.01875</v>
       </c>
       <c r="AH3" t="n">
-        <v>136996.9279734687</v>
+        <v>164957.1507207261</v>
       </c>
     </row>
     <row r="4">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>110.5859665424719</v>
+        <v>133.1771501078745</v>
       </c>
       <c r="AB4" t="n">
-        <v>151.3085981318673</v>
+        <v>182.2188521387143</v>
       </c>
       <c r="AC4" t="n">
-        <v>136.8679178891544</v>
+        <v>164.8281406364117</v>
       </c>
       <c r="AD4" t="n">
-        <v>110585.9665424719</v>
+        <v>133177.1501078745</v>
       </c>
       <c r="AE4" t="n">
-        <v>151308.5981318673</v>
+        <v>182218.8521387143</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.070330445231697e-06</v>
+        <v>9.594084366099329e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.002083333333332</v>
       </c>
       <c r="AH4" t="n">
-        <v>136867.9178891544</v>
+        <v>164828.1406364117</v>
       </c>
     </row>
   </sheetData>
@@ -10084,28 +10084,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>541.7389145672137</v>
+        <v>600.9728522797243</v>
       </c>
       <c r="AB2" t="n">
-        <v>741.2310827450077</v>
+        <v>822.277569540165</v>
       </c>
       <c r="AC2" t="n">
-        <v>670.4890285321819</v>
+        <v>743.8005523770681</v>
       </c>
       <c r="AD2" t="n">
-        <v>541738.9145672136</v>
+        <v>600972.8522797243</v>
       </c>
       <c r="AE2" t="n">
-        <v>741231.0827450077</v>
+        <v>822277.569540165</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.426457173214434e-06</v>
+        <v>3.537498643452956e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.84166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>670489.0285321819</v>
+        <v>743800.5523770681</v>
       </c>
     </row>
     <row r="3">
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>242.919957590723</v>
+        <v>276.8166882004873</v>
       </c>
       <c r="AB3" t="n">
-        <v>332.3738028476417</v>
+        <v>378.752805086291</v>
       </c>
       <c r="AC3" t="n">
-        <v>300.6525135935237</v>
+        <v>342.6051689517552</v>
       </c>
       <c r="AD3" t="n">
-        <v>242919.9575907229</v>
+        <v>276816.6882004873</v>
       </c>
       <c r="AE3" t="n">
-        <v>332373.8028476417</v>
+        <v>378752.805086291</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.000573405221455e-06</v>
+        <v>5.832381115244275e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.787500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>300652.5135935238</v>
+        <v>342605.1689517552</v>
       </c>
     </row>
     <row r="4">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>198.2555845562981</v>
+        <v>232.0669743114873</v>
       </c>
       <c r="AB4" t="n">
-        <v>271.2620372089016</v>
+        <v>317.5242723251687</v>
       </c>
       <c r="AC4" t="n">
-        <v>245.3731690964239</v>
+        <v>287.2202014226639</v>
       </c>
       <c r="AD4" t="n">
-        <v>198255.5845562981</v>
+        <v>232066.9743114873</v>
       </c>
       <c r="AE4" t="n">
-        <v>271262.0372089016</v>
+        <v>317524.2723251687</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.55319663346525e-06</v>
+        <v>6.638042942633246e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.84375</v>
       </c>
       <c r="AH4" t="n">
-        <v>245373.1690964238</v>
+        <v>287220.2014226639</v>
       </c>
     </row>
     <row r="5">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>183.3082044578058</v>
+        <v>208.6455010691059</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.8103723262851</v>
+        <v>285.4779793524844</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.8733824061059</v>
+        <v>258.2323616740277</v>
       </c>
       <c r="AD5" t="n">
-        <v>183308.2044578058</v>
+        <v>208645.5010691059</v>
       </c>
       <c r="AE5" t="n">
-        <v>250810.3723262851</v>
+        <v>285477.9793524844</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.837958372728088e-06</v>
+        <v>7.053193177910269e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.439583333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>226873.3824061059</v>
+        <v>258232.3616740278</v>
       </c>
     </row>
     <row r="6">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.0315216390411</v>
+        <v>197.3688182503411</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.3811174015242</v>
+        <v>270.0487244277234</v>
       </c>
       <c r="AC6" t="n">
-        <v>212.9166739162638</v>
+        <v>244.2756531841858</v>
       </c>
       <c r="AD6" t="n">
-        <v>172031.5216390411</v>
+        <v>197368.8182503411</v>
       </c>
       <c r="AE6" t="n">
-        <v>235381.1174015242</v>
+        <v>270048.7244277234</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.069327285879144e-06</v>
+        <v>7.39050274407285e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>212916.6739162639</v>
+        <v>244275.6531841858</v>
       </c>
     </row>
     <row r="7">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.1396521727337</v>
+        <v>195.4769487840338</v>
       </c>
       <c r="AB7" t="n">
-        <v>232.7925781343334</v>
+        <v>267.4601851605327</v>
       </c>
       <c r="AC7" t="n">
-        <v>210.5751812036953</v>
+        <v>241.9341604716172</v>
       </c>
       <c r="AD7" t="n">
-        <v>170139.6521727337</v>
+        <v>195476.9487840338</v>
       </c>
       <c r="AE7" t="n">
-        <v>232792.5781343334</v>
+        <v>267460.1851605327</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.099538352754718e-06</v>
+        <v>7.434547044244048e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.110416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>210575.1812036953</v>
+        <v>241934.1604716172</v>
       </c>
     </row>
     <row r="8">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>156.0084509096247</v>
+        <v>189.7344998102423</v>
       </c>
       <c r="AB8" t="n">
-        <v>213.4576451415568</v>
+        <v>259.6031131356263</v>
       </c>
       <c r="AC8" t="n">
-        <v>193.0855470789942</v>
+        <v>234.8269563732955</v>
       </c>
       <c r="AD8" t="n">
-        <v>156008.4509096247</v>
+        <v>189734.4998102423</v>
       </c>
       <c r="AE8" t="n">
-        <v>213457.6451415568</v>
+        <v>259603.1131356263</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.210511677614501e-06</v>
+        <v>7.596333532991712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.979166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>193085.5470789942</v>
+        <v>234826.9563732955</v>
       </c>
     </row>
     <row r="9">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>152.6130143031305</v>
+        <v>178.0355622604512</v>
       </c>
       <c r="AB9" t="n">
-        <v>208.8118589804628</v>
+        <v>243.5961106593113</v>
       </c>
       <c r="AC9" t="n">
-        <v>188.8831482287117</v>
+        <v>220.3476397473459</v>
       </c>
       <c r="AD9" t="n">
-        <v>152613.0143031305</v>
+        <v>178035.5622604512</v>
       </c>
       <c r="AE9" t="n">
-        <v>208811.8589804628</v>
+        <v>243596.1106593113</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.269886893206595e-06</v>
+        <v>7.68289584570441e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.912500000000001</v>
       </c>
       <c r="AH9" t="n">
-        <v>188883.1482287117</v>
+        <v>220347.6397473459</v>
       </c>
     </row>
     <row r="10">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>148.1231052906664</v>
+        <v>173.545653247987</v>
       </c>
       <c r="AB10" t="n">
-        <v>202.6685673888067</v>
+        <v>237.4528190676552</v>
       </c>
       <c r="AC10" t="n">
-        <v>183.3261637643974</v>
+        <v>214.7906552830315</v>
       </c>
       <c r="AD10" t="n">
-        <v>148123.1052906664</v>
+        <v>173545.653247987</v>
       </c>
       <c r="AE10" t="n">
-        <v>202668.5673888066</v>
+        <v>237452.8190676552</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.348704874609701e-06</v>
+        <v>7.797803500111442e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.825</v>
       </c>
       <c r="AH10" t="n">
-        <v>183326.1637643974</v>
+        <v>214790.6552830315</v>
       </c>
     </row>
     <row r="11">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>146.6403989999655</v>
+        <v>172.0629469572862</v>
       </c>
       <c r="AB11" t="n">
-        <v>200.6398632294857</v>
+        <v>235.4241149083342</v>
       </c>
       <c r="AC11" t="n">
-        <v>181.4910762827372</v>
+        <v>212.9555678013714</v>
       </c>
       <c r="AD11" t="n">
-        <v>146640.3989999655</v>
+        <v>172062.9469572862</v>
       </c>
       <c r="AE11" t="n">
-        <v>200639.8632294857</v>
+        <v>235424.1149083342</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.35558462251206e-06</v>
+        <v>7.80783339024944e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.818750000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>181491.0762827372</v>
+        <v>212955.5678013714</v>
       </c>
     </row>
     <row r="12">
@@ -11144,28 +11144,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>142.6250349208343</v>
+        <v>168.047582878155</v>
       </c>
       <c r="AB12" t="n">
-        <v>195.1458649510603</v>
+        <v>229.9301166299088</v>
       </c>
       <c r="AC12" t="n">
-        <v>176.521417489128</v>
+        <v>207.9859090077622</v>
       </c>
       <c r="AD12" t="n">
-        <v>142625.0349208343</v>
+        <v>168047.582878155</v>
       </c>
       <c r="AE12" t="n">
-        <v>195145.8649510603</v>
+        <v>229930.1166299089</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.407631410990772e-06</v>
+        <v>7.883711689554273e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.7625</v>
       </c>
       <c r="AH12" t="n">
-        <v>176521.417489128</v>
+        <v>207985.9090077622</v>
       </c>
     </row>
     <row r="13">
@@ -11250,28 +11250,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>141.1834580582446</v>
+        <v>166.6060060155652</v>
       </c>
       <c r="AB13" t="n">
-        <v>193.1734358897833</v>
+        <v>227.9576875686318</v>
       </c>
       <c r="AC13" t="n">
-        <v>174.7372342891371</v>
+        <v>206.2017258077712</v>
       </c>
       <c r="AD13" t="n">
-        <v>141183.4580582445</v>
+        <v>166606.0060155652</v>
       </c>
       <c r="AE13" t="n">
-        <v>193173.4358897833</v>
+        <v>227957.6875686318</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.425429019694699e-06</v>
+        <v>7.909658579259087e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.743749999999999</v>
       </c>
       <c r="AH13" t="n">
-        <v>174737.2342891371</v>
+        <v>206201.7258077712</v>
       </c>
     </row>
     <row r="14">
@@ -11356,28 +11356,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>140.8089622925877</v>
+        <v>166.2315102499083</v>
       </c>
       <c r="AB14" t="n">
-        <v>192.6610342616247</v>
+        <v>227.4452859404732</v>
       </c>
       <c r="AC14" t="n">
-        <v>174.2737355532095</v>
+        <v>205.7382270718437</v>
       </c>
       <c r="AD14" t="n">
-        <v>140808.9622925877</v>
+        <v>166231.5102499083</v>
       </c>
       <c r="AE14" t="n">
-        <v>192661.0342616247</v>
+        <v>227445.2859404732</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.439936314184455e-06</v>
+        <v>7.930808564984859e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.727083333333333</v>
       </c>
       <c r="AH14" t="n">
-        <v>174273.7355532096</v>
+        <v>205738.2270718437</v>
       </c>
     </row>
   </sheetData>
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>118.0710602560746</v>
+        <v>147.7271673256778</v>
       </c>
       <c r="AB2" t="n">
-        <v>161.5500335698423</v>
+        <v>202.1268275975592</v>
       </c>
       <c r="AC2" t="n">
-        <v>146.1319251028773</v>
+        <v>182.8361268584899</v>
       </c>
       <c r="AD2" t="n">
-        <v>118071.0602560746</v>
+        <v>147727.1673256778</v>
       </c>
       <c r="AE2" t="n">
-        <v>161550.0335698423</v>
+        <v>202126.8275975593</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.595478034936657e-06</v>
+        <v>8.965270176766074e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.664583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>146131.9251028773</v>
+        <v>182836.1268584899</v>
       </c>
     </row>
     <row r="3">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>105.7138390213769</v>
+        <v>127.9346736184874</v>
       </c>
       <c r="AB3" t="n">
-        <v>144.6423383144121</v>
+        <v>175.0458645241987</v>
       </c>
       <c r="AC3" t="n">
-        <v>130.8378765525206</v>
+        <v>158.3397328924719</v>
       </c>
       <c r="AD3" t="n">
-        <v>105713.8390213769</v>
+        <v>127934.6736184874</v>
       </c>
       <c r="AE3" t="n">
-        <v>144642.338314412</v>
+        <v>175045.8645241988</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.098609272739964e-06</v>
+        <v>9.771404604086446e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.114583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>130837.8765525206</v>
+        <v>158339.7328924719</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.3456177403396</v>
+        <v>396.4264305041836</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.1995509345794</v>
+        <v>542.40813131562</v>
       </c>
       <c r="AC2" t="n">
-        <v>439.7973481787379</v>
+        <v>490.6414605374501</v>
       </c>
       <c r="AD2" t="n">
-        <v>355345.6177403396</v>
+        <v>396426.4305041836</v>
       </c>
       <c r="AE2" t="n">
-        <v>486199.5509345794</v>
+        <v>542408.13131562</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.116634057179059e-06</v>
+        <v>4.627712877744353e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.39375</v>
       </c>
       <c r="AH2" t="n">
-        <v>439797.3481787379</v>
+        <v>490641.4605374501</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>199.975276728137</v>
+        <v>224.6750047026064</v>
       </c>
       <c r="AB3" t="n">
-        <v>273.6149959058745</v>
+        <v>307.4102533956195</v>
       </c>
       <c r="AC3" t="n">
-        <v>247.5015647177567</v>
+        <v>278.0714502646329</v>
       </c>
       <c r="AD3" t="n">
-        <v>199975.276728137</v>
+        <v>224675.0047026064</v>
       </c>
       <c r="AE3" t="n">
-        <v>273614.9959058745</v>
+        <v>307410.2533956195</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.519150480834772e-06</v>
+        <v>6.710229848271895e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.168749999999999</v>
       </c>
       <c r="AH3" t="n">
-        <v>247501.5647177567</v>
+        <v>278071.4502646329</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.3876358866595</v>
+        <v>192.0020230065573</v>
       </c>
       <c r="AB4" t="n">
-        <v>229.0271480413388</v>
+        <v>262.705638408886</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.1691184739606</v>
+        <v>237.6333809888979</v>
       </c>
       <c r="AD4" t="n">
-        <v>167387.6358866595</v>
+        <v>192002.0230065573</v>
       </c>
       <c r="AE4" t="n">
-        <v>229027.1480413388</v>
+        <v>262705.638408886</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.017494731147029e-06</v>
+        <v>7.450192918176637e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.45625</v>
       </c>
       <c r="AH4" t="n">
-        <v>207169.1184739606</v>
+        <v>237633.3809888979</v>
       </c>
     </row>
     <row r="5">
@@ -12374,28 +12374,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.3095697025943</v>
+        <v>179.9239568224921</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.5014050416355</v>
+        <v>246.1798954091828</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.2205691921177</v>
+        <v>222.6848317070551</v>
       </c>
       <c r="AD5" t="n">
-        <v>155309.5697025943</v>
+        <v>179923.9568224921</v>
       </c>
       <c r="AE5" t="n">
-        <v>212501.4050416355</v>
+        <v>246179.8954091828</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.299241932883632e-06</v>
+        <v>7.868543333985496e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.1125</v>
       </c>
       <c r="AH5" t="n">
-        <v>192220.5691921177</v>
+        <v>222684.8317070551</v>
       </c>
     </row>
     <row r="6">
@@ -12480,28 +12480,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>142.1849710925874</v>
+        <v>174.9471406713353</v>
       </c>
       <c r="AB6" t="n">
-        <v>194.5437502070072</v>
+        <v>239.3703959895407</v>
       </c>
       <c r="AC6" t="n">
-        <v>175.9767677311738</v>
+        <v>216.525221354829</v>
       </c>
       <c r="AD6" t="n">
-        <v>142184.9710925874</v>
+        <v>174947.1406713353</v>
       </c>
       <c r="AE6" t="n">
-        <v>194543.7502070072</v>
+        <v>239370.3959895407</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.399999210325861e-06</v>
+        <v>8.018152091956876e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.997916666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>175976.7677311738</v>
+        <v>216525.221354829</v>
       </c>
     </row>
     <row r="7">
@@ -12586,28 +12586,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>137.0092606642425</v>
+        <v>161.7088991301609</v>
       </c>
       <c r="AB7" t="n">
-        <v>187.4621148627204</v>
+        <v>221.2572498829169</v>
       </c>
       <c r="AC7" t="n">
-        <v>169.5709937250058</v>
+        <v>200.1407684906554</v>
       </c>
       <c r="AD7" t="n">
-        <v>137009.2606642425</v>
+        <v>161708.8991301609</v>
       </c>
       <c r="AE7" t="n">
-        <v>187462.1148627204</v>
+        <v>221257.2498829169</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.507598031298116e-06</v>
+        <v>8.177919469296684e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.881250000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>169570.9937250058</v>
+        <v>200140.7684906554</v>
       </c>
     </row>
     <row r="8">
@@ -12692,28 +12692,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>132.3314086161342</v>
+        <v>157.0310470820526</v>
       </c>
       <c r="AB8" t="n">
-        <v>181.0616713182345</v>
+        <v>214.8568063384311</v>
       </c>
       <c r="AC8" t="n">
-        <v>163.7813995293247</v>
+        <v>194.3511742949743</v>
       </c>
       <c r="AD8" t="n">
-        <v>132331.4086161342</v>
+        <v>157031.0470820526</v>
       </c>
       <c r="AE8" t="n">
-        <v>181061.6713182345</v>
+        <v>214856.8063384311</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.588763615904356e-06</v>
+        <v>8.298437635440295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.795833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>163781.3995293247</v>
+        <v>194351.1742949743</v>
       </c>
     </row>
     <row r="9">
@@ -12798,28 +12798,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>129.7256843550508</v>
+        <v>154.4253228209692</v>
       </c>
       <c r="AB9" t="n">
-        <v>177.4964044277808</v>
+        <v>211.2915394479774</v>
       </c>
       <c r="AC9" t="n">
-        <v>160.5563967070113</v>
+        <v>191.1261714726609</v>
       </c>
       <c r="AD9" t="n">
-        <v>129725.6843550508</v>
+        <v>154425.3228209692</v>
       </c>
       <c r="AE9" t="n">
-        <v>177496.4044277808</v>
+        <v>211291.5394479774</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.613330976762184e-06</v>
+        <v>8.334916314081464e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.770833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>160556.3967070113</v>
+        <v>191126.1714726609</v>
       </c>
     </row>
     <row r="10">
@@ -12904,28 +12904,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>129.3419185363913</v>
+        <v>154.0415570023096</v>
       </c>
       <c r="AB10" t="n">
-        <v>176.9713191041381</v>
+        <v>210.7664541243346</v>
       </c>
       <c r="AC10" t="n">
-        <v>160.0814247896949</v>
+        <v>190.6511995553446</v>
       </c>
       <c r="AD10" t="n">
-        <v>129341.9185363913</v>
+        <v>154041.5570023097</v>
       </c>
       <c r="AE10" t="n">
-        <v>176971.3191041381</v>
+        <v>210766.4541243346</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.638675785748423e-06</v>
+        <v>8.372549381287228e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.745833333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>160081.424789695</v>
+        <v>190651.1995553446</v>
       </c>
     </row>
   </sheetData>
@@ -13201,28 +13201,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>436.8958521518239</v>
+        <v>486.876296681112</v>
       </c>
       <c r="AB2" t="n">
-        <v>597.7801793987986</v>
+        <v>666.1656285853633</v>
       </c>
       <c r="AC2" t="n">
-        <v>540.7288780667277</v>
+        <v>602.5877159625073</v>
       </c>
       <c r="AD2" t="n">
-        <v>436895.8521518239</v>
+        <v>486876.296681112</v>
       </c>
       <c r="AE2" t="n">
-        <v>597780.1793987986</v>
+        <v>666165.6285853633</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.759951858685878e-06</v>
+        <v>4.058350453398781e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>540728.8780667277</v>
+        <v>602587.7159625073</v>
       </c>
     </row>
     <row r="3">
@@ -13307,28 +13307,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.1053117640212</v>
+        <v>254.3687440500154</v>
       </c>
       <c r="AB3" t="n">
-        <v>302.5260420333119</v>
+        <v>348.0385375660492</v>
       </c>
       <c r="AC3" t="n">
-        <v>273.6533811797087</v>
+        <v>314.8222280160047</v>
       </c>
       <c r="AD3" t="n">
-        <v>221105.3117640212</v>
+        <v>254368.7440500154</v>
       </c>
       <c r="AE3" t="n">
-        <v>302526.0420333119</v>
+        <v>348038.5375660492</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.244439102615841e-06</v>
+        <v>6.241203556617909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.477083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>273653.3811797087</v>
+        <v>314822.2280160047</v>
       </c>
     </row>
     <row r="4">
@@ -13413,28 +13413,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>182.9974189756101</v>
+        <v>216.3461026076248</v>
       </c>
       <c r="AB4" t="n">
-        <v>250.3851419186574</v>
+        <v>296.014282104044</v>
       </c>
       <c r="AC4" t="n">
-        <v>226.4887353917672</v>
+        <v>267.7630944787756</v>
       </c>
       <c r="AD4" t="n">
-        <v>182997.4189756101</v>
+        <v>216346.1026076248</v>
       </c>
       <c r="AE4" t="n">
-        <v>250385.1419186573</v>
+        <v>296014.2821040439</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.767909768681455e-06</v>
+        <v>7.010937060585574e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.65625</v>
       </c>
       <c r="AH4" t="n">
-        <v>226488.7353917672</v>
+        <v>267763.0944787756</v>
       </c>
     </row>
     <row r="5">
@@ -13519,28 +13519,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>170.0188157524879</v>
+        <v>195.009082771407</v>
       </c>
       <c r="AB5" t="n">
-        <v>232.6272444132265</v>
+        <v>266.8200302412655</v>
       </c>
       <c r="AC5" t="n">
-        <v>210.4256267008835</v>
+        <v>241.3551010393815</v>
       </c>
       <c r="AD5" t="n">
-        <v>170018.8157524879</v>
+        <v>195009.082771407</v>
       </c>
       <c r="AE5" t="n">
-        <v>232627.2444132265</v>
+        <v>266820.0302412655</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.043356498671744e-06</v>
+        <v>7.415965633104066e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.29375</v>
       </c>
       <c r="AH5" t="n">
-        <v>210425.6267008835</v>
+        <v>241355.1010393815</v>
       </c>
     </row>
     <row r="6">
@@ -13625,28 +13625,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.0072362316674</v>
+        <v>188.9975032505866</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.4019361006734</v>
+        <v>258.5947219287123</v>
       </c>
       <c r="AC6" t="n">
-        <v>202.985330269385</v>
+        <v>233.9148046078832</v>
       </c>
       <c r="AD6" t="n">
-        <v>164007.2362316674</v>
+        <v>188997.5032505866</v>
       </c>
       <c r="AE6" t="n">
-        <v>224401.9361006734</v>
+        <v>258594.7219287123</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.169501350680571e-06</v>
+        <v>7.601454382022933e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.139583333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>202985.330269385</v>
+        <v>233914.8046078832</v>
       </c>
     </row>
     <row r="7">
@@ -13731,28 +13731,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.3736399826532</v>
+        <v>182.6369827600963</v>
       </c>
       <c r="AB7" t="n">
-        <v>204.379604124079</v>
+        <v>249.891977187268</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.873901555111</v>
+        <v>226.0426376101805</v>
       </c>
       <c r="AD7" t="n">
-        <v>149373.6399826532</v>
+        <v>182636.9827600963</v>
       </c>
       <c r="AE7" t="n">
-        <v>204379.604124079</v>
+        <v>249891.977187268</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.297779086660561e-06</v>
+        <v>7.790079414136079e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.991666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>184873.901555111</v>
+        <v>226042.6376101805</v>
       </c>
     </row>
     <row r="8">
@@ -13837,28 +13837,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.4263085564408</v>
+        <v>169.5018269213806</v>
       </c>
       <c r="AB8" t="n">
-        <v>197.6104470058802</v>
+        <v>231.9198774865683</v>
       </c>
       <c r="AC8" t="n">
-        <v>178.7507832916993</v>
+        <v>209.7857698809096</v>
       </c>
       <c r="AD8" t="n">
-        <v>144426.3085564408</v>
+        <v>169501.8269213806</v>
       </c>
       <c r="AE8" t="n">
-        <v>197610.4470058802</v>
+        <v>231919.8774865684</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.392540074522265e-06</v>
+        <v>7.929419996053393e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>178750.7832916993</v>
+        <v>209785.7698809096</v>
       </c>
     </row>
     <row r="9">
@@ -13943,28 +13943,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>139.5592705033967</v>
+        <v>164.6347888683364</v>
       </c>
       <c r="AB9" t="n">
-        <v>190.9511508231438</v>
+        <v>225.2605813038319</v>
       </c>
       <c r="AC9" t="n">
-        <v>172.7270409902602</v>
+        <v>203.7620275794705</v>
       </c>
       <c r="AD9" t="n">
-        <v>139559.2705033967</v>
+        <v>164634.7888683364</v>
       </c>
       <c r="AE9" t="n">
-        <v>190951.1508231438</v>
+        <v>225260.5813038319</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.488062806659384e-06</v>
+        <v>8.069880679111521e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.783333333333334</v>
       </c>
       <c r="AH9" t="n">
-        <v>172727.0409902602</v>
+        <v>203762.0275794705</v>
       </c>
     </row>
     <row r="10">
@@ -14049,28 +14049,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>137.972487422861</v>
+        <v>163.0480057878008</v>
       </c>
       <c r="AB10" t="n">
-        <v>188.780044208427</v>
+        <v>223.0894746891152</v>
       </c>
       <c r="AC10" t="n">
-        <v>170.7631417436841</v>
+        <v>201.7981283328944</v>
       </c>
       <c r="AD10" t="n">
-        <v>137972.487422861</v>
+        <v>163048.0057878008</v>
       </c>
       <c r="AE10" t="n">
-        <v>188780.044208427</v>
+        <v>223089.4746891152</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.485168178412804e-06</v>
+        <v>8.065624294776426e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.785416666666666</v>
       </c>
       <c r="AH10" t="n">
-        <v>170763.1417436841</v>
+        <v>201798.1283328944</v>
       </c>
     </row>
     <row r="11">
@@ -14155,28 +14155,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>135.3320951970032</v>
+        <v>160.407613561943</v>
       </c>
       <c r="AB11" t="n">
-        <v>185.1673430791264</v>
+        <v>219.4767735598145</v>
       </c>
       <c r="AC11" t="n">
-        <v>167.4952317397049</v>
+        <v>198.5302183289152</v>
       </c>
       <c r="AD11" t="n">
-        <v>135332.0951970032</v>
+        <v>160407.613561943</v>
       </c>
       <c r="AE11" t="n">
-        <v>185167.3430791264</v>
+        <v>219476.7735598146</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.519446670806507e-06</v>
+        <v>8.116028846113074e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH11" t="n">
-        <v>167495.2317397049</v>
+        <v>198530.2183289152</v>
       </c>
     </row>
     <row r="12">
@@ -14261,28 +14261,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.8521748894998</v>
+        <v>160.9276932544395</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.8789390586965</v>
+        <v>220.1883695393846</v>
       </c>
       <c r="AC12" t="n">
-        <v>168.1389139977162</v>
+        <v>199.1739005869265</v>
       </c>
       <c r="AD12" t="n">
-        <v>135852.1748894998</v>
+        <v>160927.6932544395</v>
       </c>
       <c r="AE12" t="n">
-        <v>185878.9390586965</v>
+        <v>220188.3695393846</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.513962112023514e-06</v>
+        <v>8.10796411789921e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.756250000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>168138.9139977162</v>
+        <v>199173.9005869266</v>
       </c>
     </row>
   </sheetData>
@@ -14558,28 +14558,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>686.9657068732115</v>
+        <v>746.9544219854953</v>
       </c>
       <c r="AB2" t="n">
-        <v>939.9367869319703</v>
+        <v>1022.015993463926</v>
       </c>
       <c r="AC2" t="n">
-        <v>850.2305391967483</v>
+        <v>924.4762214561838</v>
       </c>
       <c r="AD2" t="n">
-        <v>686965.7068732115</v>
+        <v>746954.4219854953</v>
       </c>
       <c r="AE2" t="n">
-        <v>939936.7869319704</v>
+        <v>1022015.993463926</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119881923192461e-06</v>
+        <v>3.066986883851916e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.45208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>850230.5391967483</v>
+        <v>924476.2214561838</v>
       </c>
     </row>
     <row r="3">
@@ -14664,28 +14664,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>275.9388642972994</v>
+        <v>310.1815937845955</v>
       </c>
       <c r="AB3" t="n">
-        <v>377.551727695092</v>
+        <v>424.4041408622168</v>
       </c>
       <c r="AC3" t="n">
-        <v>341.5187207010494</v>
+        <v>383.8996053132789</v>
       </c>
       <c r="AD3" t="n">
-        <v>275938.8642972994</v>
+        <v>310181.5937845955</v>
       </c>
       <c r="AE3" t="n">
-        <v>377551.727695092</v>
+        <v>424404.1408622168</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.764790302273403e-06</v>
+        <v>5.446795102689842e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.137500000000001</v>
       </c>
       <c r="AH3" t="n">
-        <v>341518.7207010494</v>
+        <v>383899.6053132789</v>
       </c>
     </row>
     <row r="4">
@@ -14770,28 +14770,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>224.2231214796524</v>
+        <v>249.9691966131906</v>
       </c>
       <c r="AB4" t="n">
-        <v>306.7919668342933</v>
+        <v>342.0188826686542</v>
       </c>
       <c r="AC4" t="n">
-        <v>277.5121721049488</v>
+        <v>309.3770805333764</v>
       </c>
       <c r="AD4" t="n">
-        <v>224223.1214796524</v>
+        <v>249969.1966131906</v>
       </c>
       <c r="AE4" t="n">
-        <v>306791.9668342933</v>
+        <v>342018.8826686542</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.330199985588817e-06</v>
+        <v>6.264814287512997e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.075</v>
       </c>
       <c r="AH4" t="n">
-        <v>277512.1721049488</v>
+        <v>309377.0805333764</v>
       </c>
     </row>
     <row r="5">
@@ -14876,28 +14876,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>196.6323194846231</v>
+        <v>222.4636459641819</v>
       </c>
       <c r="AB5" t="n">
-        <v>269.0410143244362</v>
+        <v>304.3845748114464</v>
       </c>
       <c r="AC5" t="n">
-        <v>243.3641175188259</v>
+        <v>275.3345381979657</v>
       </c>
       <c r="AD5" t="n">
-        <v>196632.3194846231</v>
+        <v>222463.6459641819</v>
       </c>
       <c r="AE5" t="n">
-        <v>269041.0143244362</v>
+        <v>304384.5748114464</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.651211517104435e-06</v>
+        <v>6.72924494563236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.587499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>243364.1175188259</v>
+        <v>275334.5381979658</v>
       </c>
     </row>
     <row r="6">
@@ -14982,28 +14982,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>186.4313299486933</v>
+        <v>212.09206422766</v>
       </c>
       <c r="AB6" t="n">
-        <v>255.0835704054878</v>
+        <v>290.193719117651</v>
       </c>
       <c r="AC6" t="n">
-        <v>230.7387524581019</v>
+        <v>262.4980378545907</v>
       </c>
       <c r="AD6" t="n">
-        <v>186431.3299486933</v>
+        <v>212092.06422766</v>
       </c>
       <c r="AE6" t="n">
-        <v>255083.5704054878</v>
+        <v>290193.7191176511</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.842230289179005e-06</v>
+        <v>7.005605653326842e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.327083333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>230738.7524581019</v>
+        <v>262498.0378545907</v>
       </c>
     </row>
     <row r="7">
@@ -15088,28 +15088,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>182.1248900766077</v>
+        <v>207.7856243555743</v>
       </c>
       <c r="AB7" t="n">
-        <v>249.1913093857846</v>
+        <v>284.3014580979478</v>
       </c>
       <c r="AC7" t="n">
-        <v>225.408840560277</v>
+        <v>257.1681259567658</v>
       </c>
       <c r="AD7" t="n">
-        <v>182124.8900766077</v>
+        <v>207785.6243555743</v>
       </c>
       <c r="AE7" t="n">
-        <v>249191.3093857846</v>
+        <v>284301.4580979478</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.92781375749879e-06</v>
+        <v>7.129425462316978e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.216666666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>225408.840560277</v>
+        <v>257168.1259567658</v>
       </c>
     </row>
     <row r="8">
@@ -15194,28 +15194,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>175.9193857932134</v>
+        <v>201.5801200721801</v>
       </c>
       <c r="AB8" t="n">
-        <v>240.7006646577213</v>
+        <v>275.8108133698846</v>
       </c>
       <c r="AC8" t="n">
-        <v>217.7285310483627</v>
+        <v>249.4878164448515</v>
       </c>
       <c r="AD8" t="n">
-        <v>175919.3857932134</v>
+        <v>201580.1200721801</v>
       </c>
       <c r="AE8" t="n">
-        <v>240700.6646577213</v>
+        <v>275810.8133698846</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.043983757451761e-06</v>
+        <v>7.297497024348264e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.072916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>217728.5310483627</v>
+        <v>249487.8164448515</v>
       </c>
     </row>
     <row r="9">
@@ -15300,28 +15300,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>172.4393739435093</v>
+        <v>198.1001082224759</v>
       </c>
       <c r="AB9" t="n">
-        <v>235.9391589176711</v>
+        <v>271.0493076298343</v>
       </c>
       <c r="AC9" t="n">
-        <v>213.421456733326</v>
+        <v>245.1807421298148</v>
       </c>
       <c r="AD9" t="n">
-        <v>172439.3739435093</v>
+        <v>198100.1082224759</v>
       </c>
       <c r="AE9" t="n">
-        <v>235939.1589176711</v>
+        <v>271049.3076298343</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.103686314389618e-06</v>
+        <v>7.383873042303583e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.002083333333332</v>
       </c>
       <c r="AH9" t="n">
-        <v>213421.456733326</v>
+        <v>245180.7421298148</v>
       </c>
     </row>
     <row r="10">
@@ -15406,28 +15406,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>160.2085312320712</v>
+        <v>185.9545168570584</v>
       </c>
       <c r="AB10" t="n">
-        <v>219.2043803331916</v>
+        <v>254.4311736980041</v>
       </c>
       <c r="AC10" t="n">
-        <v>198.2838219295347</v>
+        <v>230.1486195767357</v>
       </c>
       <c r="AD10" t="n">
-        <v>160208.5312320712</v>
+        <v>185954.5168570584</v>
       </c>
       <c r="AE10" t="n">
-        <v>219204.3803331916</v>
+        <v>254431.1736980041</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.166771035883067e-06</v>
+        <v>7.475142282950952e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.929166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>198283.8219295347</v>
+        <v>230148.6195767357</v>
       </c>
     </row>
     <row r="11">
@@ -15512,28 +15512,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>159.0242777424699</v>
+        <v>184.7702633674571</v>
       </c>
       <c r="AB11" t="n">
-        <v>217.5840324631433</v>
+        <v>252.8108258279557</v>
       </c>
       <c r="AC11" t="n">
-        <v>196.8181177860307</v>
+        <v>228.6829154332318</v>
       </c>
       <c r="AD11" t="n">
-        <v>159024.2777424699</v>
+        <v>184770.2633674571</v>
       </c>
       <c r="AE11" t="n">
-        <v>217584.0324631433</v>
+        <v>252810.8258279557</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.170006149805809e-06</v>
+        <v>7.479822756830304e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.925000000000001</v>
       </c>
       <c r="AH11" t="n">
-        <v>196818.1177860308</v>
+        <v>228682.9154332318</v>
       </c>
     </row>
     <row r="12">
@@ -15618,28 +15618,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>155.1572962951695</v>
+        <v>180.9032819201567</v>
       </c>
       <c r="AB12" t="n">
-        <v>212.2930578477684</v>
+        <v>247.5198512125809</v>
       </c>
       <c r="AC12" t="n">
-        <v>192.0321063620161</v>
+        <v>223.8969040092171</v>
       </c>
       <c r="AD12" t="n">
-        <v>155157.2962951695</v>
+        <v>180903.2819201567</v>
       </c>
       <c r="AE12" t="n">
-        <v>212293.0578477684</v>
+        <v>247519.8512125809</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.232355618134998e-06</v>
+        <v>7.570028253414184e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.854166666666667</v>
       </c>
       <c r="AH12" t="n">
-        <v>192032.1063620161</v>
+        <v>223896.9040092171</v>
       </c>
     </row>
     <row r="13">
@@ -15724,28 +15724,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>152.2560634355807</v>
+        <v>178.0020490605679</v>
       </c>
       <c r="AB13" t="n">
-        <v>208.3234630559205</v>
+        <v>243.550256420733</v>
       </c>
       <c r="AC13" t="n">
-        <v>188.4413641257396</v>
+        <v>220.3061617729407</v>
       </c>
       <c r="AD13" t="n">
-        <v>152256.0634355807</v>
+        <v>178002.0490605679</v>
       </c>
       <c r="AE13" t="n">
-        <v>208323.4630559206</v>
+        <v>243550.256420733</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.26955942824652e-06</v>
+        <v>7.623853703026735e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.814583333333334</v>
       </c>
       <c r="AH13" t="n">
-        <v>188441.3641257396</v>
+        <v>220306.1617729407</v>
       </c>
     </row>
     <row r="14">
@@ -15830,28 +15830,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>149.0469509672535</v>
+        <v>174.7929365922407</v>
       </c>
       <c r="AB14" t="n">
-        <v>203.9326138007072</v>
+        <v>239.1594071655197</v>
       </c>
       <c r="AC14" t="n">
-        <v>184.4695713608468</v>
+        <v>216.3343690080479</v>
       </c>
       <c r="AD14" t="n">
-        <v>149046.9509672535</v>
+        <v>174792.9365922407</v>
       </c>
       <c r="AE14" t="n">
-        <v>203932.6138007072</v>
+        <v>239159.4071655197</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.315145124430598e-06</v>
+        <v>7.689805834963062e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.764583333333334</v>
       </c>
       <c r="AH14" t="n">
-        <v>184469.5713608468</v>
+        <v>216334.3690080479</v>
       </c>
     </row>
     <row r="15">
@@ -15936,28 +15936,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>147.9956166824886</v>
+        <v>173.7416023074758</v>
       </c>
       <c r="AB15" t="n">
-        <v>202.4941318506974</v>
+        <v>237.72092521551</v>
       </c>
       <c r="AC15" t="n">
-        <v>183.1683761092235</v>
+        <v>215.0331737564245</v>
       </c>
       <c r="AD15" t="n">
-        <v>147995.6166824886</v>
+        <v>173741.6023074758</v>
       </c>
       <c r="AE15" t="n">
-        <v>202494.1318506974</v>
+        <v>237720.92521551</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.307351440889448e-06</v>
+        <v>7.678530147890077e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.772916666666667</v>
       </c>
       <c r="AH15" t="n">
-        <v>183168.3761092235</v>
+        <v>215033.1737564245</v>
       </c>
     </row>
     <row r="16">
@@ -16042,28 +16042,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>146.8575463569721</v>
+        <v>172.6035319819593</v>
       </c>
       <c r="AB16" t="n">
-        <v>200.9369738232073</v>
+        <v>236.1637671880198</v>
       </c>
       <c r="AC16" t="n">
-        <v>181.7598310583915</v>
+        <v>213.6246287055925</v>
       </c>
       <c r="AD16" t="n">
-        <v>146857.5463569721</v>
+        <v>172603.5319819593</v>
       </c>
       <c r="AE16" t="n">
-        <v>200936.9738232073</v>
+        <v>236163.7671880198</v>
       </c>
       <c r="AF16" t="n">
-        <v>5.334849909232747e-06</v>
+        <v>7.718314175864572e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.741666666666666</v>
       </c>
       <c r="AH16" t="n">
-        <v>181759.8310583915</v>
+        <v>213624.6287055925</v>
       </c>
     </row>
     <row r="17">
@@ -16148,28 +16148,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>147.3207555979867</v>
+        <v>173.0667412229739</v>
       </c>
       <c r="AB17" t="n">
-        <v>201.5707571421126</v>
+        <v>236.7975505069251</v>
       </c>
       <c r="AC17" t="n">
-        <v>182.3331269868611</v>
+        <v>214.1979246340622</v>
       </c>
       <c r="AD17" t="n">
-        <v>147320.7555979867</v>
+        <v>173066.7412229739</v>
       </c>
       <c r="AE17" t="n">
-        <v>201570.7571421126</v>
+        <v>236797.5505069251</v>
       </c>
       <c r="AF17" t="n">
-        <v>5.334849909232747e-06</v>
+        <v>7.718314175864572e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.741666666666666</v>
       </c>
       <c r="AH17" t="n">
-        <v>182333.1269868611</v>
+        <v>214197.9246340622</v>
       </c>
     </row>
   </sheetData>
@@ -16445,28 +16445,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>287.3370939755287</v>
+        <v>327.6455479409312</v>
       </c>
       <c r="AB2" t="n">
-        <v>393.147288395249</v>
+        <v>448.2990933941966</v>
       </c>
       <c r="AC2" t="n">
-        <v>355.6258629764904</v>
+        <v>405.5140571123829</v>
       </c>
       <c r="AD2" t="n">
-        <v>287337.0939755287</v>
+        <v>327645.5479409312</v>
       </c>
       <c r="AE2" t="n">
-        <v>393147.288395249</v>
+        <v>448299.0933941966</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.521534133980835e-06</v>
+        <v>5.288233626797425e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.4125</v>
       </c>
       <c r="AH2" t="n">
-        <v>355625.8629764904</v>
+        <v>405514.057112383</v>
       </c>
     </row>
     <row r="3">
@@ -16551,28 +16551,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.5586692159352</v>
+        <v>203.8565652941589</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.7341398554545</v>
+        <v>278.9255461522697</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.3314429991522</v>
+        <v>252.3052835020417</v>
       </c>
       <c r="AD3" t="n">
-        <v>171558.6692159352</v>
+        <v>203856.5652941589</v>
       </c>
       <c r="AE3" t="n">
-        <v>234734.1398554545</v>
+        <v>278925.5461522697</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.822064561578112e-06</v>
+        <v>7.24122016000437e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.872916666666668</v>
       </c>
       <c r="AH3" t="n">
-        <v>212331.4429991522</v>
+        <v>252305.2835020417</v>
       </c>
     </row>
     <row r="4">
@@ -16657,28 +16657,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>152.2646923897743</v>
+        <v>176.4668687433502</v>
       </c>
       <c r="AB4" t="n">
-        <v>208.3352695717307</v>
+        <v>241.4497549833411</v>
       </c>
       <c r="AC4" t="n">
-        <v>188.4520438442515</v>
+        <v>218.4061292446605</v>
       </c>
       <c r="AD4" t="n">
-        <v>152264.6923897743</v>
+        <v>176466.8687433502</v>
       </c>
       <c r="AE4" t="n">
-        <v>208335.2695717308</v>
+        <v>241449.7549833411</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.28309663242544e-06</v>
+        <v>7.933544927372411e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.272916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>188452.0438442515</v>
+        <v>218406.1292446605</v>
       </c>
     </row>
     <row r="5">
@@ -16763,28 +16763,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.9814405524348</v>
+        <v>169.1836169060107</v>
       </c>
       <c r="AB5" t="n">
-        <v>198.370003093494</v>
+        <v>231.4844885051045</v>
       </c>
       <c r="AC5" t="n">
-        <v>179.4378484123552</v>
+        <v>209.3919338127643</v>
       </c>
       <c r="AD5" t="n">
-        <v>144981.4405524348</v>
+        <v>169183.6169060107</v>
       </c>
       <c r="AE5" t="n">
-        <v>198370.003093494</v>
+        <v>231484.4885051045</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.454909826530035e-06</v>
+        <v>8.191554157447457e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.075</v>
       </c>
       <c r="AH5" t="n">
-        <v>179437.8484123552</v>
+        <v>209391.9338127642</v>
       </c>
     </row>
     <row r="6">
@@ -16869,28 +16869,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.3339381985893</v>
+        <v>153.6213658981858</v>
       </c>
       <c r="AB6" t="n">
-        <v>176.9604000538898</v>
+        <v>210.1915301181494</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.0715478382773</v>
+        <v>190.1311454893986</v>
       </c>
       <c r="AD6" t="n">
-        <v>129333.9381985893</v>
+        <v>153621.3658981858</v>
       </c>
       <c r="AE6" t="n">
-        <v>176960.4000538898</v>
+        <v>210191.5301181494</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.625609416598766e-06</v>
+        <v>8.44789110547572e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.891666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>160071.5478382773</v>
+        <v>190131.1454893986</v>
       </c>
     </row>
     <row r="7">
@@ -16975,28 +16975,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>124.1259304717201</v>
+        <v>148.4133581713165</v>
       </c>
       <c r="AB7" t="n">
-        <v>169.8345741209056</v>
+        <v>203.0657041851653</v>
       </c>
       <c r="AC7" t="n">
-        <v>153.6258007311754</v>
+        <v>183.6853983822967</v>
       </c>
       <c r="AD7" t="n">
-        <v>124125.9304717201</v>
+        <v>148413.3581713165</v>
       </c>
       <c r="AE7" t="n">
-        <v>169834.5741209056</v>
+        <v>203065.7041851653</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.731242713714923e-06</v>
+        <v>8.606519002484822e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.783333333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>153625.8007311754</v>
+        <v>183685.3983822967</v>
       </c>
     </row>
     <row r="8">
@@ -17081,28 +17081,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>122.8799436835213</v>
+        <v>147.1673713831178</v>
       </c>
       <c r="AB8" t="n">
-        <v>168.1297600282354</v>
+        <v>201.3608900924951</v>
       </c>
       <c r="AC8" t="n">
-        <v>152.0836917027875</v>
+        <v>182.1432893539088</v>
       </c>
       <c r="AD8" t="n">
-        <v>122879.9436835213</v>
+        <v>147167.3713831178</v>
       </c>
       <c r="AE8" t="n">
-        <v>168129.7600282354</v>
+        <v>201360.8900924951</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.759719159774852e-06</v>
+        <v>8.649281643395408e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.754166666666666</v>
       </c>
       <c r="AH8" t="n">
-        <v>152083.6917027875</v>
+        <v>182143.2893539088</v>
       </c>
     </row>
   </sheetData>
@@ -17378,28 +17378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>209.175966281353</v>
+        <v>240.5234829036537</v>
       </c>
       <c r="AB2" t="n">
-        <v>286.2037852583541</v>
+        <v>329.0948404557937</v>
       </c>
       <c r="AC2" t="n">
-        <v>258.8888976829164</v>
+        <v>297.6864907703002</v>
       </c>
       <c r="AD2" t="n">
-        <v>209175.966281353</v>
+        <v>240523.4829036537</v>
       </c>
       <c r="AE2" t="n">
-        <v>286203.785258354</v>
+        <v>329094.8404557937</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.229879968663858e-06</v>
+        <v>6.487564650098133e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.1625</v>
       </c>
       <c r="AH2" t="n">
-        <v>258888.8976829164</v>
+        <v>297686.4907703002</v>
       </c>
     </row>
     <row r="3">
@@ -17484,28 +17484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>141.9634050447973</v>
+        <v>165.4527296750178</v>
       </c>
       <c r="AB3" t="n">
-        <v>194.2405937656169</v>
+        <v>226.3797240005343</v>
       </c>
       <c r="AC3" t="n">
-        <v>175.7025441150669</v>
+        <v>204.7743608679266</v>
       </c>
       <c r="AD3" t="n">
-        <v>141963.4050447973</v>
+        <v>165452.7296750178</v>
       </c>
       <c r="AE3" t="n">
-        <v>194240.5937656169</v>
+        <v>226379.7240005343</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.360554641580351e-06</v>
+        <v>8.221733253726713e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.439583333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>175702.5441150669</v>
+        <v>204774.3608679266</v>
       </c>
     </row>
     <row r="4">
@@ -17590,28 +17590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>118.2668338962701</v>
+        <v>141.8414098725111</v>
       </c>
       <c r="AB4" t="n">
-        <v>161.8178997012812</v>
+        <v>194.0736745888478</v>
       </c>
       <c r="AC4" t="n">
-        <v>146.3742264666841</v>
+        <v>175.5515554702561</v>
       </c>
       <c r="AD4" t="n">
-        <v>118266.8338962701</v>
+        <v>141841.4098725111</v>
       </c>
       <c r="AE4" t="n">
-        <v>161817.8997012812</v>
+        <v>194073.6745888478</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.829694316067614e-06</v>
+        <v>8.941274704242985e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.922916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>146374.2264666841</v>
+        <v>175551.5554702561</v>
       </c>
     </row>
     <row r="5">
@@ -17696,28 +17696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>113.4765810113192</v>
+        <v>137.0511569875602</v>
       </c>
       <c r="AB5" t="n">
-        <v>155.2636643730523</v>
+        <v>187.5194392606189</v>
       </c>
       <c r="AC5" t="n">
-        <v>140.4455181592523</v>
+        <v>169.6228471628242</v>
       </c>
       <c r="AD5" t="n">
-        <v>113476.5810113192</v>
+        <v>137051.1569875602</v>
       </c>
       <c r="AE5" t="n">
-        <v>155263.6643730523</v>
+        <v>187519.4392606189</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.920340519509695e-06</v>
+        <v>9.080303024070749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.83125</v>
       </c>
       <c r="AH5" t="n">
-        <v>140445.5181592523</v>
+        <v>169622.8471628242</v>
       </c>
     </row>
     <row r="6">
@@ -17802,28 +17802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>113.8830272602838</v>
+        <v>137.4576032365248</v>
       </c>
       <c r="AB6" t="n">
-        <v>155.8197820620284</v>
+        <v>188.075556949595</v>
       </c>
       <c r="AC6" t="n">
-        <v>140.9485607565087</v>
+        <v>170.1258897600807</v>
       </c>
       <c r="AD6" t="n">
-        <v>113883.0272602838</v>
+        <v>137457.6032365248</v>
       </c>
       <c r="AE6" t="n">
-        <v>155819.7820620284</v>
+        <v>188075.556949595</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.921997671309368e-06</v>
+        <v>9.0828446752559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.829166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>140948.5607565087</v>
+        <v>170125.8897600807</v>
       </c>
     </row>
   </sheetData>
@@ -32920,28 +32920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>162.4852302499373</v>
+        <v>192.9876784097103</v>
       </c>
       <c r="AB2" t="n">
-        <v>222.3194603703063</v>
+        <v>264.0542556155268</v>
       </c>
       <c r="AC2" t="n">
-        <v>201.1016030999505</v>
+        <v>238.8532880621334</v>
       </c>
       <c r="AD2" t="n">
-        <v>162485.2302499373</v>
+        <v>192987.6784097103</v>
       </c>
       <c r="AE2" t="n">
-        <v>222319.4603703063</v>
+        <v>264054.2556155268</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.814291948659152e-06</v>
+        <v>7.522236206111369e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.41875</v>
       </c>
       <c r="AH2" t="n">
-        <v>201101.6030999505</v>
+        <v>238853.2880621334</v>
       </c>
     </row>
     <row r="3">
@@ -33026,28 +33026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.9141541737001</v>
+        <v>143.8336830979535</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.4400800963869</v>
+        <v>196.7995907087882</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6507110486443</v>
+        <v>178.0173139815575</v>
       </c>
       <c r="AD3" t="n">
-        <v>120914.1541737001</v>
+        <v>143833.6830979535</v>
       </c>
       <c r="AE3" t="n">
-        <v>165440.0800963869</v>
+        <v>196799.5907087882</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.81986937961039e-06</v>
+        <v>9.093431106590265e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.1375</v>
       </c>
       <c r="AH3" t="n">
-        <v>149650.7110486443</v>
+        <v>178017.3139815575</v>
       </c>
     </row>
     <row r="4">
@@ -33132,28 +33132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>106.0835621428377</v>
+        <v>129.0883424131116</v>
       </c>
       <c r="AB4" t="n">
-        <v>145.1482098002274</v>
+        <v>176.6243650652779</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.295468373725</v>
+        <v>159.7675835573504</v>
       </c>
       <c r="AD4" t="n">
-        <v>106083.5621428377</v>
+        <v>129088.3424131116</v>
       </c>
       <c r="AE4" t="n">
-        <v>145148.2098002274</v>
+        <v>176624.3650652779</v>
       </c>
       <c r="AF4" t="n">
-        <v>6.055578375102711e-06</v>
+        <v>9.461721762600917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.897916666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>131295.468373725</v>
+        <v>159767.5835573504</v>
       </c>
     </row>
     <row r="5">
@@ -33238,28 +33238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.5515825606125</v>
+        <v>129.5563628308865</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.7885759834303</v>
+        <v>177.2647312484808</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.8747189071627</v>
+        <v>160.3468340907882</v>
       </c>
       <c r="AD5" t="n">
-        <v>106551.5825606125</v>
+        <v>129556.3628308864</v>
       </c>
       <c r="AE5" t="n">
-        <v>145788.5759834303</v>
+        <v>177264.7312484808</v>
       </c>
       <c r="AF5" t="n">
-        <v>6.057806896514638e-06</v>
+        <v>9.465203783348652e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.895833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>131874.7189071627</v>
+        <v>160346.8340907882</v>
       </c>
     </row>
   </sheetData>
@@ -33535,28 +33535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>101.1675219738428</v>
+        <v>122.957539105316</v>
       </c>
       <c r="AB2" t="n">
-        <v>138.4218667606264</v>
+        <v>168.2359295076032</v>
       </c>
       <c r="AC2" t="n">
-        <v>125.2110780733395</v>
+        <v>152.1797285160543</v>
       </c>
       <c r="AD2" t="n">
-        <v>101167.5219738428</v>
+        <v>122957.539105316</v>
       </c>
       <c r="AE2" t="n">
-        <v>138421.8667606264</v>
+        <v>168235.9295076032</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.016506427572839e-06</v>
+        <v>9.804956929631875e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.370833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>125211.0780733395</v>
+        <v>152179.7285160543</v>
       </c>
     </row>
     <row r="3">
@@ -33641,28 +33641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>101.1157622684161</v>
+        <v>122.9057793998893</v>
       </c>
       <c r="AB3" t="n">
-        <v>138.3510468481846</v>
+        <v>168.1651095951615</v>
       </c>
       <c r="AC3" t="n">
-        <v>125.1470171139448</v>
+        <v>152.1156675566596</v>
       </c>
       <c r="AD3" t="n">
-        <v>101115.7622684161</v>
+        <v>122905.7793998893</v>
       </c>
       <c r="AE3" t="n">
-        <v>138351.0468481846</v>
+        <v>168165.1095951615</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.055880506334324e-06</v>
+        <v>9.869123926052095e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.329166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>125147.0171139448</v>
+        <v>152115.6675566596</v>
       </c>
     </row>
   </sheetData>
@@ -33938,28 +33938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.4005885925376</v>
+        <v>439.0984215732931</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.7950644538366</v>
+        <v>600.7938320517575</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.9458512849312</v>
+        <v>543.4549119401764</v>
       </c>
       <c r="AD2" t="n">
-        <v>389400.5885925376</v>
+        <v>439098.4215732932</v>
       </c>
       <c r="AE2" t="n">
-        <v>532795.0644538366</v>
+        <v>600793.8320517575</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.935988411250105e-06</v>
+        <v>4.337572921803662e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.91875</v>
       </c>
       <c r="AH2" t="n">
-        <v>481945.8512849312</v>
+        <v>543454.9119401764</v>
       </c>
     </row>
     <row r="3">
@@ -34044,28 +34044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>210.2699363432208</v>
+        <v>243.2881266995129</v>
       </c>
       <c r="AB3" t="n">
-        <v>287.7006033595537</v>
+        <v>332.8775480647626</v>
       </c>
       <c r="AC3" t="n">
-        <v>260.2428615653355</v>
+        <v>301.1081820741337</v>
       </c>
       <c r="AD3" t="n">
-        <v>210269.9363432208</v>
+        <v>243288.1266995129</v>
       </c>
       <c r="AE3" t="n">
-        <v>287700.6033595537</v>
+        <v>332877.5480647626</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.381132961245441e-06</v>
+        <v>6.472601740082579e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.316666666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>260242.8615653355</v>
+        <v>301108.1820741337</v>
       </c>
     </row>
     <row r="4">
@@ -34150,28 +34150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>175.3331173265944</v>
+        <v>200.3100450988293</v>
       </c>
       <c r="AB4" t="n">
-        <v>239.8985062773543</v>
+        <v>274.0730407595937</v>
       </c>
       <c r="AC4" t="n">
-        <v>217.0029295379813</v>
+        <v>247.9158944135071</v>
       </c>
       <c r="AD4" t="n">
-        <v>175333.1173265945</v>
+        <v>200310.0450988293</v>
       </c>
       <c r="AE4" t="n">
-        <v>239898.5062773543</v>
+        <v>274073.0407595937</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.887672128471234e-06</v>
+        <v>7.220952982605384e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.558333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>217002.9295379813</v>
+        <v>247915.8944135071</v>
       </c>
     </row>
     <row r="5">
@@ -34256,28 +34256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.0459978114675</v>
+        <v>187.8523333831101</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.0867272873103</v>
+        <v>257.0278499947029</v>
       </c>
       <c r="AC5" t="n">
-        <v>201.7956431392618</v>
+        <v>232.4974727321365</v>
       </c>
       <c r="AD5" t="n">
-        <v>163045.9978114674</v>
+        <v>187852.3333831101</v>
       </c>
       <c r="AE5" t="n">
-        <v>223086.7272873104</v>
+        <v>257027.8499947029</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.160483168413922e-06</v>
+        <v>7.623998776345644e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.212499999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>201795.6431392618</v>
+        <v>232497.4727321365</v>
       </c>
     </row>
     <row r="6">
@@ -34362,28 +34362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>157.636346553029</v>
+        <v>182.4426821246717</v>
       </c>
       <c r="AB6" t="n">
-        <v>215.6850037785485</v>
+        <v>249.6261264859411</v>
       </c>
       <c r="AC6" t="n">
-        <v>195.1003297337897</v>
+        <v>225.8021593266644</v>
       </c>
       <c r="AD6" t="n">
-        <v>157636.346553029</v>
+        <v>182442.6821246717</v>
       </c>
       <c r="AE6" t="n">
-        <v>215685.0037785486</v>
+        <v>249626.1264859411</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.269730680178901e-06</v>
+        <v>7.785398953195945e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.083333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>195100.3297337897</v>
+        <v>225802.1593266644</v>
       </c>
     </row>
     <row r="7">
@@ -34468,28 +34468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.3289485494627</v>
+        <v>168.2205354671259</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.1089906322267</v>
+        <v>230.1667579922685</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.3926238070395</v>
+        <v>208.1999656506265</v>
       </c>
       <c r="AD7" t="n">
-        <v>143328.9485494627</v>
+        <v>168220.5354671259</v>
       </c>
       <c r="AE7" t="n">
-        <v>196108.9906322267</v>
+        <v>230166.7579922685</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.401443173236398e-06</v>
+        <v>7.979988462187294e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.935416666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>177392.6238070395</v>
+        <v>208199.9656506265</v>
       </c>
     </row>
     <row r="8">
@@ -34574,28 +34574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>138.8157161346043</v>
+        <v>163.7073030522676</v>
       </c>
       <c r="AB8" t="n">
-        <v>189.9337869324589</v>
+        <v>223.9915542925007</v>
       </c>
       <c r="AC8" t="n">
-        <v>171.8067728814228</v>
+        <v>202.6141147250098</v>
       </c>
       <c r="AD8" t="n">
-        <v>138815.7161346043</v>
+        <v>163707.3030522676</v>
       </c>
       <c r="AE8" t="n">
-        <v>189933.7869324589</v>
+        <v>223991.5542925007</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.479147389350926e-06</v>
+        <v>8.094787179524481e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.849999999999999</v>
       </c>
       <c r="AH8" t="n">
-        <v>171806.7728814228</v>
+        <v>202614.1147250098</v>
       </c>
     </row>
     <row r="9">
@@ -34680,28 +34680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.4553111190523</v>
+        <v>160.3468980367156</v>
       </c>
       <c r="AB9" t="n">
-        <v>185.3359325395767</v>
+        <v>219.3936998996185</v>
       </c>
       <c r="AC9" t="n">
-        <v>167.6477312586667</v>
+        <v>198.4550731022536</v>
       </c>
       <c r="AD9" t="n">
-        <v>135455.3111190523</v>
+        <v>160346.8980367156</v>
       </c>
       <c r="AE9" t="n">
-        <v>185335.9325395767</v>
+        <v>219393.6998996185</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.51792256254075e-06</v>
+        <v>8.1520728760967e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.810416666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>167647.7312586667</v>
+        <v>198455.0731022536</v>
       </c>
     </row>
     <row r="10">
@@ -34786,28 +34786,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>132.5307696947866</v>
+        <v>157.4223566124498</v>
       </c>
       <c r="AB10" t="n">
-        <v>181.3344459412366</v>
+        <v>215.3922133012784</v>
       </c>
       <c r="AC10" t="n">
-        <v>164.0281409251491</v>
+        <v>194.835482768736</v>
       </c>
       <c r="AD10" t="n">
-        <v>132530.7696947866</v>
+        <v>157422.3566124498</v>
       </c>
       <c r="AE10" t="n">
-        <v>181334.4459412366</v>
+        <v>215392.2133012784</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.574546624976683e-06</v>
+        <v>8.23572817902756e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH10" t="n">
-        <v>164028.1409251491</v>
+        <v>194835.482768736</v>
       </c>
     </row>
     <row r="11">
@@ -34892,28 +34892,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>132.8184914503901</v>
+        <v>157.7100783680533</v>
       </c>
       <c r="AB11" t="n">
-        <v>181.7281195406411</v>
+        <v>215.7858869006829</v>
       </c>
       <c r="AC11" t="n">
-        <v>164.3842428687509</v>
+        <v>195.1915847123379</v>
       </c>
       <c r="AD11" t="n">
-        <v>132818.4914503901</v>
+        <v>157710.0783680533</v>
       </c>
       <c r="AE11" t="n">
-        <v>181728.1195406411</v>
+        <v>215785.8869006829</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.570546011869796e-06</v>
+        <v>8.22981775001614e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.754166666666666</v>
       </c>
       <c r="AH11" t="n">
-        <v>164384.2428687509</v>
+        <v>195191.5847123379</v>
       </c>
     </row>
   </sheetData>
@@ -35189,28 +35189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>609.1159047666181</v>
+        <v>668.8187846515647</v>
       </c>
       <c r="AB2" t="n">
-        <v>833.4192531988542</v>
+        <v>915.107367362607</v>
       </c>
       <c r="AC2" t="n">
-        <v>753.8788893848233</v>
+        <v>827.7708045827757</v>
       </c>
       <c r="AD2" t="n">
-        <v>609115.904766618</v>
+        <v>668818.7846515647</v>
       </c>
       <c r="AE2" t="n">
-        <v>833419.2531988543</v>
+        <v>915107.3673626069</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.271109379879531e-06</v>
+        <v>3.298034672565026e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.60208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>753878.8893848233</v>
+        <v>827770.8045827757</v>
       </c>
     </row>
     <row r="3">
@@ -35295,28 +35295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>255.1982504917793</v>
+        <v>297.6724829861724</v>
       </c>
       <c r="AB3" t="n">
-        <v>349.1735048749114</v>
+        <v>407.2886236047945</v>
       </c>
       <c r="AC3" t="n">
-        <v>315.8488756378461</v>
+        <v>368.4175690011255</v>
       </c>
       <c r="AD3" t="n">
-        <v>255198.2504917793</v>
+        <v>297672.4829861724</v>
       </c>
       <c r="AE3" t="n">
-        <v>349173.5048749115</v>
+        <v>407288.6236047944</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.876617793102456e-06</v>
+        <v>5.629504244578742e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.96875</v>
       </c>
       <c r="AH3" t="n">
-        <v>315848.8756378461</v>
+        <v>368417.5690011255</v>
       </c>
     </row>
     <row r="4">
@@ -35401,28 +35401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>206.5598434038589</v>
+        <v>240.5904339121134</v>
       </c>
       <c r="AB4" t="n">
-        <v>282.6242905221727</v>
+        <v>329.1864457792382</v>
       </c>
       <c r="AC4" t="n">
-        <v>255.6510249005026</v>
+        <v>297.769353410244</v>
       </c>
       <c r="AD4" t="n">
-        <v>206559.8434038589</v>
+        <v>240590.4339121134</v>
       </c>
       <c r="AE4" t="n">
-        <v>282624.2905221727</v>
+        <v>329186.4457792382</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.442727058126943e-06</v>
+        <v>6.451590578707702e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.952083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>255651.0249005026</v>
+        <v>297769.353410244</v>
       </c>
     </row>
     <row r="5">
@@ -35507,28 +35507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>190.2148860045306</v>
+        <v>215.8871753812217</v>
       </c>
       <c r="AB5" t="n">
-        <v>260.2603987197942</v>
+        <v>295.3863576264392</v>
       </c>
       <c r="AC5" t="n">
-        <v>235.4215115438168</v>
+        <v>267.1950982320157</v>
       </c>
       <c r="AD5" t="n">
-        <v>190214.8860045306</v>
+        <v>215887.1753812218</v>
       </c>
       <c r="AE5" t="n">
-        <v>260260.3987197942</v>
+        <v>295386.3576264392</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.73734704492727e-06</v>
+        <v>6.879428594924108e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.520833333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>235421.5115438168</v>
+        <v>267195.0982320157</v>
       </c>
     </row>
     <row r="6">
@@ -35613,28 +35613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>178.1408821844673</v>
+        <v>203.6425793605663</v>
       </c>
       <c r="AB6" t="n">
-        <v>243.7402140257372</v>
+        <v>278.6327611575354</v>
       </c>
       <c r="AC6" t="n">
-        <v>220.4779900907305</v>
+        <v>252.0404414962784</v>
       </c>
       <c r="AD6" t="n">
-        <v>178140.8821844673</v>
+        <v>203642.5793605663</v>
       </c>
       <c r="AE6" t="n">
-        <v>243740.2140257372</v>
+        <v>278632.7611575354</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.973991986514248e-06</v>
+        <v>7.223077046802007e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.210416666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>220477.9900907305</v>
+        <v>252040.4414962784</v>
       </c>
     </row>
     <row r="7">
@@ -35719,28 +35719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.6406838338659</v>
+        <v>201.142381009965</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.3193323414796</v>
+        <v>275.2118794732777</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.3835925531797</v>
+        <v>248.9460439587276</v>
       </c>
       <c r="AD7" t="n">
-        <v>175640.6838338659</v>
+        <v>201142.381009965</v>
       </c>
       <c r="AE7" t="n">
-        <v>240319.3323414796</v>
+        <v>275211.8794732777</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.02455334308139e-06</v>
+        <v>7.296500682196972e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.147916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>217383.5925531797</v>
+        <v>248946.0439587276</v>
       </c>
     </row>
     <row r="8">
@@ -35825,28 +35825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>170.7012208848261</v>
+        <v>196.2029180609252</v>
       </c>
       <c r="AB8" t="n">
-        <v>233.560941220881</v>
+        <v>268.4534883526792</v>
       </c>
       <c r="AC8" t="n">
-        <v>211.2702127956674</v>
+        <v>242.8326642012153</v>
       </c>
       <c r="AD8" t="n">
-        <v>170701.2208848262</v>
+        <v>196202.9180609252</v>
       </c>
       <c r="AE8" t="n">
-        <v>233560.941220881</v>
+        <v>268453.4883526792</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.116038260975604e-06</v>
+        <v>7.429352245360295e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.037500000000001</v>
       </c>
       <c r="AH8" t="n">
-        <v>211270.2127956674</v>
+        <v>242832.6642012153</v>
       </c>
     </row>
     <row r="9">
@@ -35931,28 +35931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>157.8208638278586</v>
+        <v>191.7661134815415</v>
       </c>
       <c r="AB9" t="n">
-        <v>215.937468454298</v>
+        <v>262.3828565891659</v>
       </c>
       <c r="AC9" t="n">
-        <v>195.3286995352221</v>
+        <v>237.3414050130246</v>
       </c>
       <c r="AD9" t="n">
-        <v>157820.8638278586</v>
+        <v>191766.1134815415</v>
       </c>
       <c r="AE9" t="n">
-        <v>215937.468454298</v>
+        <v>262382.8565891659</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.195068181944187e-06</v>
+        <v>7.544117047898465e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.945833333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>195328.6995352221</v>
+        <v>237341.4050130246</v>
       </c>
     </row>
     <row r="10">
@@ -36037,28 +36037,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>154.4496191947561</v>
+        <v>180.0365677168757</v>
       </c>
       <c r="AB10" t="n">
-        <v>211.324782818473</v>
+        <v>246.3339746029203</v>
       </c>
       <c r="AC10" t="n">
-        <v>191.1562421425337</v>
+        <v>222.8242057987939</v>
       </c>
       <c r="AD10" t="n">
-        <v>154449.6191947561</v>
+        <v>180036.5677168757</v>
       </c>
       <c r="AE10" t="n">
-        <v>211324.7828184729</v>
+        <v>246333.9746029203</v>
       </c>
       <c r="AF10" t="n">
-        <v>5.248446740196888e-06</v>
+        <v>7.621631736291976e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>191156.2421425337</v>
+        <v>222824.2057987939</v>
       </c>
     </row>
     <row r="11">
@@ -36143,28 +36143,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>152.2648543799974</v>
+        <v>177.851802902117</v>
       </c>
       <c r="AB11" t="n">
-        <v>208.3354912139005</v>
+        <v>243.3446829983478</v>
       </c>
       <c r="AC11" t="n">
-        <v>188.4522443332036</v>
+        <v>220.1202079894637</v>
       </c>
       <c r="AD11" t="n">
-        <v>152264.8543799974</v>
+        <v>177851.802902117</v>
       </c>
       <c r="AE11" t="n">
-        <v>208335.4912139005</v>
+        <v>243344.6829983478</v>
       </c>
       <c r="AF11" t="n">
-        <v>5.273505007821074e-06</v>
+        <v>7.658020576121153e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.858333333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>188452.2443332036</v>
+        <v>220120.2079894637</v>
       </c>
     </row>
     <row r="12">
@@ -36249,28 +36249,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>149.4083373896517</v>
+        <v>174.9952859117713</v>
       </c>
       <c r="AB12" t="n">
-        <v>204.427078647076</v>
+        <v>239.4362704315234</v>
       </c>
       <c r="AC12" t="n">
-        <v>184.9168451762641</v>
+        <v>216.5848088325242</v>
       </c>
       <c r="AD12" t="n">
-        <v>149408.3373896517</v>
+        <v>174995.2859117713</v>
       </c>
       <c r="AE12" t="n">
-        <v>204427.078647076</v>
+        <v>239436.2704315234</v>
       </c>
       <c r="AF12" t="n">
-        <v>5.309535534641647e-06</v>
+        <v>7.710342990786772e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.818750000000001</v>
       </c>
       <c r="AH12" t="n">
-        <v>184916.8451762641</v>
+        <v>216584.8088325242</v>
       </c>
     </row>
     <row r="13">
@@ -36355,28 +36355,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>146.5112906457488</v>
+        <v>172.0982391678684</v>
       </c>
       <c r="AB13" t="n">
-        <v>200.463211483388</v>
+        <v>235.4724032678353</v>
       </c>
       <c r="AC13" t="n">
-        <v>181.3312839313547</v>
+        <v>212.9992475876149</v>
       </c>
       <c r="AD13" t="n">
-        <v>146511.2906457488</v>
+        <v>172098.2391678684</v>
       </c>
       <c r="AE13" t="n">
-        <v>200463.211483388</v>
+        <v>235472.4032678353</v>
       </c>
       <c r="AF13" t="n">
-        <v>5.343490228641282e-06</v>
+        <v>7.7596509453482e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH13" t="n">
-        <v>181331.2839313547</v>
+        <v>212999.2475876149</v>
       </c>
     </row>
     <row r="14">
@@ -36461,28 +36461,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>144.4789912107316</v>
+        <v>170.0659397328512</v>
       </c>
       <c r="AB14" t="n">
-        <v>197.6825297376755</v>
+        <v>232.6917215221229</v>
       </c>
       <c r="AC14" t="n">
-        <v>178.8159865487408</v>
+        <v>210.483950205001</v>
       </c>
       <c r="AD14" t="n">
-        <v>144478.9912107316</v>
+        <v>170065.9397328512</v>
       </c>
       <c r="AE14" t="n">
-        <v>197682.5297376755</v>
+        <v>232691.7215221229</v>
       </c>
       <c r="AF14" t="n">
-        <v>5.362765819121424e-06</v>
+        <v>7.787642360601412e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.760416666666667</v>
       </c>
       <c r="AH14" t="n">
-        <v>178815.9865487408</v>
+        <v>210483.950205001</v>
       </c>
     </row>
     <row r="15">
@@ -36567,28 +36567,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>144.2907313789736</v>
+        <v>169.8776799010932</v>
       </c>
       <c r="AB15" t="n">
-        <v>197.4249443304267</v>
+        <v>232.4341361148741</v>
       </c>
       <c r="AC15" t="n">
-        <v>178.5829847312364</v>
+        <v>210.2509483874966</v>
       </c>
       <c r="AD15" t="n">
-        <v>144290.7313789736</v>
+        <v>169877.6799010932</v>
       </c>
       <c r="AE15" t="n">
-        <v>197424.9443304267</v>
+        <v>232434.1361148741</v>
       </c>
       <c r="AF15" t="n">
-        <v>5.378927660370159e-06</v>
+        <v>7.811112085698336e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.743749999999999</v>
       </c>
       <c r="AH15" t="n">
-        <v>178582.9847312364</v>
+        <v>210250.9483874966</v>
       </c>
     </row>
   </sheetData>
@@ -36864,28 +36864,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>94.34315328175796</v>
+        <v>122.7204683082304</v>
       </c>
       <c r="AB2" t="n">
-        <v>129.0844644462223</v>
+        <v>167.9115587842054</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.7648243306928</v>
+        <v>151.8863152792403</v>
       </c>
       <c r="AD2" t="n">
-        <v>94343.15328175796</v>
+        <v>122720.4683082304</v>
       </c>
       <c r="AE2" t="n">
-        <v>129084.4644462224</v>
+        <v>167911.5587842054</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.841629139371958e-06</v>
+        <v>9.737647736666385e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.79375</v>
       </c>
       <c r="AH2" t="n">
-        <v>116764.8243306928</v>
+        <v>151886.3152792403</v>
       </c>
     </row>
   </sheetData>
@@ -37161,28 +37161,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>230.86313377567</v>
+        <v>262.7186385335081</v>
       </c>
       <c r="AB2" t="n">
-        <v>315.8771245943682</v>
+        <v>359.4632315698745</v>
       </c>
       <c r="AC2" t="n">
-        <v>285.7302551595041</v>
+        <v>325.1565652586591</v>
       </c>
       <c r="AD2" t="n">
-        <v>230863.13377567</v>
+        <v>262718.6385335081</v>
       </c>
       <c r="AE2" t="n">
-        <v>315877.1245943682</v>
+        <v>359463.2315698745</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.972592888362151e-06</v>
+        <v>6.045915422203458e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.564583333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>285730.2551595041</v>
+        <v>325156.5652586591</v>
       </c>
     </row>
     <row r="3">
@@ -37267,28 +37267,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.2555510191356</v>
+        <v>176.1685148011545</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.3227619451341</v>
+        <v>241.0415339571823</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.4407299279826</v>
+        <v>218.0368682602963</v>
       </c>
       <c r="AD3" t="n">
-        <v>152255.5510191356</v>
+        <v>176168.5148011546</v>
       </c>
       <c r="AE3" t="n">
-        <v>208322.7619451341</v>
+        <v>241041.5339571823</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.157659135365239e-06</v>
+        <v>7.84947559069651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.595833333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>188440.7299279826</v>
+        <v>218036.8682602963</v>
       </c>
     </row>
     <row r="4">
@@ -37373,28 +37373,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.4502608042349</v>
+        <v>160.1926323856617</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.6972665929251</v>
+        <v>219.1826268301265</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.8791415006082</v>
+        <v>198.2641445502709</v>
       </c>
       <c r="AD4" t="n">
-        <v>136450.2608042349</v>
+        <v>160192.6323856617</v>
       </c>
       <c r="AE4" t="n">
-        <v>186697.2665929251</v>
+        <v>219182.6268301264</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.587464063312343e-06</v>
+        <v>8.503598556587888e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.089583333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>168879.1415006082</v>
+        <v>198264.1445502709</v>
       </c>
     </row>
     <row r="5">
@@ -37479,28 +37479,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>120.8241769943363</v>
+        <v>144.6517999217835</v>
       </c>
       <c r="AB5" t="n">
-        <v>165.3169693500683</v>
+        <v>197.9189742399189</v>
       </c>
       <c r="AC5" t="n">
-        <v>149.5393498191673</v>
+        <v>179.0298651195421</v>
       </c>
       <c r="AD5" t="n">
-        <v>120824.1769943363</v>
+        <v>144651.7999217836</v>
       </c>
       <c r="AE5" t="n">
-        <v>165316.9693500683</v>
+        <v>197918.9742399189</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.771829475034333e-06</v>
+        <v>8.784185497504058e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.89375</v>
       </c>
       <c r="AH5" t="n">
-        <v>149539.3498191673</v>
+        <v>179029.8651195421</v>
       </c>
     </row>
     <row r="6">
@@ -37585,28 +37585,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.0238756261109</v>
+        <v>140.8514985535582</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.1172293606013</v>
+        <v>192.7192342504519</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.8358657164124</v>
+        <v>174.3263810167873</v>
       </c>
       <c r="AD6" t="n">
-        <v>117023.8756261109</v>
+        <v>140851.4985535582</v>
       </c>
       <c r="AE6" t="n">
-        <v>160117.2293606013</v>
+        <v>192719.2342504519</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.856908642002586e-06</v>
+        <v>8.91366804508362e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.808333333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>144835.8657164124</v>
+        <v>174326.3810167873</v>
       </c>
     </row>
     <row r="7">
@@ -37691,28 +37691,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.0652146810216</v>
+        <v>140.8928376084689</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.1737912792805</v>
+        <v>192.775796169131</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.887029444958</v>
+        <v>174.3775447453328</v>
       </c>
       <c r="AD7" t="n">
-        <v>117065.2146810216</v>
+        <v>140892.8376084689</v>
       </c>
       <c r="AE7" t="n">
-        <v>160173.7912792805</v>
+        <v>192775.796169131</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.874218414936626e-06</v>
+        <v>8.940011903132437e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.791666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>144887.029444958</v>
+        <v>174377.5447453329</v>
       </c>
     </row>
   </sheetData>
@@ -37988,28 +37988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>315.7050622071136</v>
+        <v>356.5361679722696</v>
       </c>
       <c r="AB2" t="n">
-        <v>431.9615940361348</v>
+        <v>487.8285142852752</v>
       </c>
       <c r="AC2" t="n">
-        <v>390.7357857632304</v>
+        <v>441.2708455535078</v>
       </c>
       <c r="AD2" t="n">
-        <v>315705.0622071136</v>
+        <v>356536.1679722696</v>
       </c>
       <c r="AE2" t="n">
-        <v>431961.5940361348</v>
+        <v>487828.5142852752</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.312838494536412e-06</v>
+        <v>4.945772016059007e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.887500000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>390735.7857632303</v>
+        <v>441270.8455535078</v>
       </c>
     </row>
     <row r="3">
@@ -38094,28 +38094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>189.4620999038994</v>
+        <v>213.9608528715436</v>
       </c>
       <c r="AB3" t="n">
-        <v>259.2304035663323</v>
+        <v>292.7506781853476</v>
       </c>
       <c r="AC3" t="n">
-        <v>234.4898176821937</v>
+        <v>264.8109643375818</v>
       </c>
       <c r="AD3" t="n">
-        <v>189462.0999038994</v>
+        <v>213960.8528715436</v>
       </c>
       <c r="AE3" t="n">
-        <v>259230.4035663323</v>
+        <v>292750.6781853476</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.67265720932192e-06</v>
+        <v>6.975859917292663e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.010416666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>234489.8176821937</v>
+        <v>264810.9643375818</v>
       </c>
     </row>
     <row r="4">
@@ -38200,28 +38200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>159.8385770173661</v>
+        <v>184.2519891304388</v>
       </c>
       <c r="AB4" t="n">
-        <v>218.6981926554043</v>
+        <v>252.101700152222</v>
       </c>
       <c r="AC4" t="n">
-        <v>197.8259440932764</v>
+        <v>228.0414677167257</v>
       </c>
       <c r="AD4" t="n">
-        <v>159838.5770173661</v>
+        <v>184251.9891304388</v>
       </c>
       <c r="AE4" t="n">
-        <v>218698.1926554043</v>
+        <v>252101.700152222</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.145897391019732e-06</v>
+        <v>7.682365245389935e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.364583333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>197825.9440932764</v>
+        <v>228041.4677167257</v>
       </c>
     </row>
     <row r="5">
@@ -38306,28 +38306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>148.04710706988</v>
+        <v>172.4605191829527</v>
       </c>
       <c r="AB5" t="n">
-        <v>202.5645832703219</v>
+        <v>235.9680907671396</v>
       </c>
       <c r="AC5" t="n">
-        <v>183.2321037442381</v>
+        <v>213.4476273676874</v>
       </c>
       <c r="AD5" t="n">
-        <v>148047.10706988</v>
+        <v>172460.5191829526</v>
       </c>
       <c r="AE5" t="n">
-        <v>202564.5832703219</v>
+        <v>235968.0907671396</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.434400956938498e-06</v>
+        <v>8.113075304213355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.027083333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>183232.1037442381</v>
+        <v>213447.6273676874</v>
       </c>
     </row>
     <row r="6">
@@ -38412,28 +38412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.8120471465359</v>
+        <v>160.3107106056291</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.8240345104622</v>
+        <v>219.3441866599292</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.0892494625064</v>
+        <v>198.410285336668</v>
       </c>
       <c r="AD6" t="n">
-        <v>135812.0471465359</v>
+        <v>160310.7106056291</v>
       </c>
       <c r="AE6" t="n">
-        <v>185824.0345104622</v>
+        <v>219344.1866599292</v>
       </c>
       <c r="AF6" t="n">
-        <v>5.514741731970917e-06</v>
+        <v>8.233016906425216e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.939583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>168089.2494625064</v>
+        <v>198410.285336668</v>
       </c>
     </row>
     <row r="7">
@@ -38518,28 +38518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>130.4098138251903</v>
+        <v>154.9084772842835</v>
       </c>
       <c r="AB7" t="n">
-        <v>178.4324605504873</v>
+        <v>211.9526126999542</v>
       </c>
       <c r="AC7" t="n">
-        <v>161.4031169471299</v>
+        <v>191.7241528212915</v>
       </c>
       <c r="AD7" t="n">
-        <v>130409.8138251903</v>
+        <v>154908.4772842835</v>
       </c>
       <c r="AE7" t="n">
-        <v>178432.4605504873</v>
+        <v>211952.6126999542</v>
       </c>
       <c r="AF7" t="n">
-        <v>5.613792002558832e-06</v>
+        <v>8.380890114631622e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.835416666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>161403.1169471299</v>
+        <v>191724.1528212915</v>
       </c>
     </row>
     <row r="8">
@@ -38624,28 +38624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.7547758583495</v>
+        <v>150.2534393174427</v>
       </c>
       <c r="AB8" t="n">
-        <v>172.0632322384777</v>
+        <v>205.5833843879447</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.6417588459484</v>
+        <v>185.96279472011</v>
       </c>
       <c r="AD8" t="n">
-        <v>125754.7758583495</v>
+        <v>150253.4393174427</v>
       </c>
       <c r="AE8" t="n">
-        <v>172063.2322384777</v>
+        <v>205583.3843879447</v>
       </c>
       <c r="AF8" t="n">
-        <v>5.712370605191566e-06</v>
+        <v>8.528059164703712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.733333333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>155641.7588459484</v>
+        <v>185962.79472011</v>
       </c>
     </row>
     <row r="9">
@@ -38730,28 +38730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>126.2584369145695</v>
+        <v>150.7571003736627</v>
       </c>
       <c r="AB9" t="n">
-        <v>172.7523635155552</v>
+        <v>206.2725156650222</v>
       </c>
       <c r="AC9" t="n">
-        <v>156.2651204011437</v>
+        <v>186.5861562753053</v>
       </c>
       <c r="AD9" t="n">
-        <v>126258.4369145695</v>
+        <v>150757.1003736627</v>
       </c>
       <c r="AE9" t="n">
-        <v>172752.3635155552</v>
+        <v>206272.5156650222</v>
       </c>
       <c r="AF9" t="n">
-        <v>5.692560551073982e-06</v>
+        <v>8.49848452306243e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.754166666666666</v>
       </c>
       <c r="AH9" t="n">
-        <v>156265.1204011437</v>
+        <v>186586.1562753053</v>
       </c>
     </row>
   </sheetData>
